--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_27B36EDAD4DAD0FD9C8B0E4200FEE1432B19AC9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24007FAB-90DC-4F36-B86F-9C49F126C9AB}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_27B36EDAD4DAD0FD9C8B0E4200FEE1432B19AC9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{608438D1-1245-4E6F-96DD-694CDBA73486}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="WORKERS" sheetId="2" r:id="rId2"/>
     <sheet name="ACTIVITIES" sheetId="3" r:id="rId3"/>
     <sheet name="VALUES" sheetId="4" r:id="rId4"/>
-    <sheet name="Folha1" sheetId="5" r:id="rId5"/>
+    <sheet name="SKILLS" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_97EB59F0447504C386EE96A21408A18579FDDA95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46E868B1-1E42-43ED-B7D3-659FB4A8CEC1}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_97EB59F0447504C386EE96A21408A18579FDDA95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D070889-44EF-4C61-8679-18FEBBCC7F11}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WORKER" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5805" uniqueCount="2059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5807" uniqueCount="2061">
   <si>
     <t>idTrabalhador</t>
   </si>
@@ -6202,6 +6202,12 @@
   </si>
   <si>
     <t>7:00;12:00,13:00;15:00</t>
+  </si>
+  <si>
+    <t>WINDOW_TIME</t>
+  </si>
+  <si>
+    <t>the amount of minutes that the worker can start working on a activty with na appointment, earlier or later than the appointment, per example, if the appointment is for the 13:30, and the value is 30, he can start working from the 13:00 to the 14:00</t>
   </si>
 </sst>
 </file>
@@ -6256,7 +6262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -6285,6 +6291,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6300,6 +6309,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6693,7 +6706,7 @@
   </sheetPr>
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+    <sheetView topLeftCell="A162" workbookViewId="0">
       <selection activeCell="L172" sqref="L172"/>
     </sheetView>
   </sheetViews>
@@ -43253,9 +43266,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -43369,6 +43384,17 @@
       </c>
       <c r="C10" t="s">
         <v>2056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B11" s="2">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>2060</v>
       </c>
     </row>
   </sheetData>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="11_1E72CB516018D59AD64BB047848AF462F5668C01" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{865B17A8-2272-48DA-A047-4BBB91FAFCD7}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="11_1E72CB516018D59AD64BB047848AF462F5668C01" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7BBEF32-DDFA-4F8E-8C86-00C607FD5FC4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WORKER" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5788" uniqueCount="2072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5794" uniqueCount="2078">
   <si>
     <t>Skill</t>
   </si>
@@ -6276,6 +6276,24 @@
   </si>
   <si>
     <t>id-1000</t>
+  </si>
+  <si>
+    <t>PRIORITY_APPOINTMENT</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>PRIORITY_CREATION</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>quanto menor o valor maior a prioridade da Atividade, 1 -&gt; Nenhuma prioridade</t>
+  </si>
+  <si>
+    <t>0 -&gt; Prioridade máxima para as Atividades com marcação, 1 -&gt; Nenhuma prioridade para as Ativiades com marcação,  &gt;1 -&gt; prioridade para as Atividades sem marcação</t>
   </si>
 </sst>
 </file>
@@ -6776,7 +6794,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -51299,15 +51317,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="96.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -51351,7 +51371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -51439,8 +51459,31 @@
         <v>26</v>
       </c>
     </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2076</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="11_1E72CB516018D59AD64BB047848AF462F5668C01" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7BBEF32-DDFA-4F8E-8C86-00C607FD5FC4}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="11_1E72CB516018D59AD64BB047848AF462F5668C01" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EAC3296-6645-4AC5-AC4D-1ACC054F7DB4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5794" uniqueCount="2078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5792" uniqueCount="2077">
   <si>
     <t>Skill</t>
   </si>
@@ -6281,19 +6281,16 @@
     <t>PRIORITY_APPOINTMENT</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>PRIORITY_CREATION</t>
   </si>
   <si>
-    <t>0.9</t>
-  </si>
-  <si>
     <t>quanto menor o valor maior a prioridade da Atividade, 1 -&gt; Nenhuma prioridade</t>
   </si>
   <si>
     <t>0 -&gt; Prioridade máxima para as Atividades com marcação, 1 -&gt; Nenhuma prioridade para as Ativiades com marcação,  &gt;1 -&gt; prioridade para as Atividades sem marcação</t>
+  </si>
+  <si>
+    <t>7:00;11:00</t>
   </si>
 </sst>
 </file>
@@ -6832,25 +6829,25 @@
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1">
-        <v>74140</v>
+        <v>51380</v>
       </c>
       <c r="D2" t="s">
-        <v>1065</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5">
-        <v>43.502648866636378</v>
+        <v>46.615953294355222</v>
       </c>
       <c r="F2" s="5">
-        <v>0.21340461754543771</v>
+        <v>-0.21034809587029771</v>
       </c>
       <c r="G2" t="s">
-        <v>1062</v>
+        <v>2076</v>
       </c>
     </row>
   </sheetData>
@@ -7291,7 +7288,7 @@
   <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51320,7 +51317,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51398,7 +51395,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>18</v>
@@ -51420,7 +51417,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>22</v>
@@ -51431,7 +51428,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>24</v>
@@ -51463,22 +51460,22 @@
       <c r="A13" t="s">
         <v>2072</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>2073</v>
+      <c r="B13" s="2">
+        <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>2074</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2075</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>2076</v>
       </c>
     </row>
   </sheetData>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="11_1E72CB516018D59AD64BB047848AF462F5668C01" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA1050C3-2895-4E59-A8B7-3ADDCBF610C0}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="11_1E72CB516018D59AD64BB047848AF462F5668C01" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7663EAFD-F9B4-4BE1-B8AD-455EC35A6933}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WORKER" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5792" uniqueCount="2077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5792" uniqueCount="2076">
   <si>
     <t>Skill</t>
   </si>
@@ -6282,9 +6282,6 @@
   </si>
   <si>
     <t>0 -&gt; Prioridade máxima para as Atividades com marcação, 1 -&gt; Nenhuma prioridade para as Ativiades com marcação,  &gt;1 -&gt; prioridade para as Atividades sem marcação</t>
-  </si>
-  <si>
-    <t>7:00;11:00</t>
   </si>
   <si>
     <t>how much does gas the cars consume per hour in liters (around 0,3)</t>
@@ -6791,8 +6788,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6827,27 +6824,27 @@
         <v>888</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>889</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>348</v>
       </c>
       <c r="C2" s="1">
-        <v>51380</v>
+        <v>29720</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>1063</v>
       </c>
       <c r="E2" s="5">
-        <v>46.615953294355222</v>
+        <v>43.523674647031847</v>
       </c>
       <c r="F2" s="5">
-        <v>-0.21034809587029771</v>
+        <v>1.462113963892117</v>
       </c>
       <c r="G2" t="s">
-        <v>2074</v>
+        <v>1060</v>
       </c>
     </row>
   </sheetData>
@@ -7287,8 +7284,8 @@
   </sheetPr>
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51316,7 +51313,7 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -51354,7 +51351,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -51387,7 +51384,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgac0\OneDrive - ESTGV\3 ano\2 semestre\ProjetoFinal\ProjetoFinal3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="11_1E72CB516018D59AD64BB047848AF462F5668C01" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7663EAFD-F9B4-4BE1-B8AD-455EC35A6933}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3E3769-C4F2-4F21-A8EE-009FFA7E5B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5792" uniqueCount="2076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5792" uniqueCount="2077">
   <si>
     <t>Skill</t>
   </si>
@@ -6288,6 +6288,9 @@
   </si>
   <si>
     <t>cost by hour (16)</t>
+  </si>
+  <si>
+    <t>FTTH, FTTHx, Cworks</t>
   </si>
 </sst>
 </file>
@@ -6468,10 +6471,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6835,7 +6834,7 @@
         <v>29720</v>
       </c>
       <c r="D2" t="s">
-        <v>1063</v>
+        <v>2076</v>
       </c>
       <c r="E2" s="5">
         <v>43.523674647031847</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgac0\OneDrive - ESTGV\3 ano\2 semestre\ProjetoFinal\ProjetoFinal3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3E3769-C4F2-4F21-A8EE-009FFA7E5B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5D3E3769-C4F2-4F21-A8EE-009FFA7E5B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{822CD750-EBFC-40A7-AE2D-356F20F1E4CF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5792" uniqueCount="2077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5792" uniqueCount="2076">
   <si>
     <t>Skill</t>
   </si>
@@ -6288,9 +6288,6 @@
   </si>
   <si>
     <t>cost by hour (16)</t>
-  </si>
-  <si>
-    <t>FTTH, FTTHx, Cworks</t>
   </si>
 </sst>
 </file>
@@ -6471,6 +6468,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6834,7 +6835,7 @@
         <v>29720</v>
       </c>
       <c r="D2" t="s">
-        <v>2076</v>
+        <v>1064</v>
       </c>
       <c r="E2" s="5">
         <v>43.523674647031847</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5D3E3769-C4F2-4F21-A8EE-009FFA7E5B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{822CD750-EBFC-40A7-AE2D-356F20F1E4CF}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{5D3E3769-C4F2-4F21-A8EE-009FFA7E5B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93317BD7-67C1-4455-9984-1DC39A4B5E66}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6786,10 +6786,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6799,9 +6799,12 @@
     <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="17" max="17" width="34.21875" customWidth="1"/>
+    <col min="18" max="18" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>882</v>
       </c>
@@ -6824,28 +6827,33 @@
         <v>888</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1">
-        <v>29720</v>
+        <v>8150</v>
       </c>
       <c r="D2" t="s">
-        <v>1064</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5">
-        <v>43.523674647031847</v>
+        <v>44.006287611253462</v>
       </c>
       <c r="F2" s="5">
-        <v>1.462113963892117</v>
+        <v>2.1033318076309251</v>
       </c>
       <c r="G2" t="s">
         <v>1060</v>
       </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M12" s="1"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7285,7 +7293,7 @@
   <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51314,7 +51322,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51392,7 +51400,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
@@ -51403,7 +51411,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>18</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{5D3E3769-C4F2-4F21-A8EE-009FFA7E5B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93317BD7-67C1-4455-9984-1DC39A4B5E66}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{5D3E3769-C4F2-4F21-A8EE-009FFA7E5B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{445B50A6-F841-4BA0-8119-0EEA3C550012}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WORKER" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5792" uniqueCount="2076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5792" uniqueCount="2077">
   <si>
     <t>Skill</t>
   </si>
@@ -6287,7 +6287,10 @@
     <t>how much does gas the cars consume per hour in liters (around 0,3)</t>
   </si>
   <si>
-    <t>cost by hour (16)</t>
+    <t>cost by hour (16) 10 32</t>
+  </si>
+  <si>
+    <t>7:00;11:00,12:00;16:30</t>
   </si>
 </sst>
 </file>
@@ -6788,8 +6791,8 @@
   </sheetPr>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6847,7 +6850,7 @@
         <v>2.1033318076309251</v>
       </c>
       <c r="G2" t="s">
-        <v>1060</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -51321,8 +51324,8 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51356,7 +51359,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2075</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{5D3E3769-C4F2-4F21-A8EE-009FFA7E5B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{841215D3-81D9-44FF-8452-896E4542D0BE}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{5D3E3769-C4F2-4F21-A8EE-009FFA7E5B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6266F7D1-A26D-43C9-863B-2BAB4D3FA9E9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WORKER" sheetId="1" r:id="rId1"/>
@@ -7292,7 +7292,7 @@
   </sheetPr>
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
@@ -51321,8 +51321,8 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51400,7 +51400,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
@@ -51411,7 +51411,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>18</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{5D3E3769-C4F2-4F21-A8EE-009FFA7E5B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50953B1A-69A7-498C-8A01-588BD205660A}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{5D3E3769-C4F2-4F21-A8EE-009FFA7E5B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB9582B7-2F59-4CA6-816A-3CA8E22E9496}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="876" windowWidth="14760" windowHeight="11028" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WORKER" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3788" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3787" uniqueCount="1299">
   <si>
     <t>Skill</t>
   </si>
@@ -4065,7 +4065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4099,9 +4099,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5068,3951 +5065,3437 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="D1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1">
-        <v>51380</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>46.615953294355222</v>
       </c>
       <c r="E2" s="4">
-        <v>46.615953294355222</v>
-      </c>
-      <c r="F2" s="4">
         <v>-0.21034809587029771</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1">
-        <v>74140</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>276</v>
       </c>
+      <c r="D3" s="4">
+        <v>43.502648866636378</v>
+      </c>
       <c r="E3" s="4">
-        <v>43.502648866636378</v>
-      </c>
-      <c r="F3" s="4">
         <v>0.21340461754543771</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1">
-        <v>38150</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
+      <c r="D4" s="4">
+        <v>44.720492306259231</v>
+      </c>
       <c r="E4" s="4">
-        <v>44.720492306259231</v>
-      </c>
-      <c r="F4" s="4">
         <v>-0.69093368608216776</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1">
-        <v>1300</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
+      <c r="D5" s="4">
+        <v>43.021797942174551</v>
+      </c>
       <c r="E5" s="4">
-        <v>43.021797942174551</v>
-      </c>
-      <c r="F5" s="4">
         <v>1.88522061096028</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="1">
-        <v>22260</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>278</v>
       </c>
+      <c r="D6" s="4">
+        <v>46.14553530195343</v>
+      </c>
       <c r="E6" s="4">
-        <v>46.14553530195343</v>
-      </c>
-      <c r="F6" s="4">
         <v>-0.94684504983751794</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>108</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1">
-        <v>8150</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44.006287611253462</v>
       </c>
       <c r="E7" s="4">
-        <v>44.006287611253462</v>
-      </c>
-      <c r="F7" s="4">
         <v>2.1033318076309251</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>109</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="1">
-        <v>97230</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>277</v>
       </c>
+      <c r="D8" s="4">
+        <v>42.983082015896187</v>
+      </c>
       <c r="E8" s="4">
-        <v>42.983082015896187</v>
-      </c>
-      <c r="F8" s="4">
         <v>1.2834175195343149</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>110</v>
       </c>
       <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="1">
-        <v>2200</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43.914835515382137</v>
       </c>
       <c r="E9" s="4">
-        <v>43.914835515382137</v>
-      </c>
-      <c r="F9" s="4">
         <v>2.193465678043514</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>111</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1">
-        <v>10400</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>2</v>
       </c>
+      <c r="D10" s="4">
+        <v>43.391340710797209</v>
+      </c>
       <c r="E10" s="4">
-        <v>43.391340710797209</v>
-      </c>
-      <c r="F10" s="4">
         <v>1.270543369033752</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>112</v>
       </c>
       <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="1">
-        <v>35120</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s">
         <v>280</v>
       </c>
+      <c r="D11" s="4">
+        <v>45.536713091467902</v>
+      </c>
       <c r="E11" s="4">
-        <v>45.536713091467902</v>
-      </c>
-      <c r="F11" s="4">
         <v>0.20094818564177361</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="1">
-        <v>60240</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>43.607329721601829</v>
       </c>
       <c r="E12" s="4">
-        <v>43.607329721601829</v>
-      </c>
-      <c r="F12" s="4">
         <v>2.157340166863507</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>114</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1">
-        <v>22350</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s">
         <v>278</v>
       </c>
+      <c r="D13" s="4">
+        <v>43.240985771172987</v>
+      </c>
       <c r="E13" s="4">
-        <v>43.240985771172987</v>
-      </c>
-      <c r="F13" s="4">
         <v>-0.98409312743015775</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>115</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1">
-        <v>97134</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44.007154468459873</v>
       </c>
       <c r="E14" s="4">
-        <v>44.007154468459873</v>
-      </c>
-      <c r="F14" s="4">
         <v>0.3990940484614669</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>116</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="1">
-        <v>97240</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s">
         <v>3</v>
       </c>
+      <c r="D15" s="4">
+        <v>44.035551500235613</v>
+      </c>
       <c r="E15" s="4">
-        <v>44.035551500235613</v>
-      </c>
-      <c r="F15" s="4">
         <v>-0.8237415692890574</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>117</v>
       </c>
       <c r="B16" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="1">
-        <v>56420</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>43.918344530726159</v>
       </c>
       <c r="E16" s="4">
-        <v>43.918344530726159</v>
-      </c>
-      <c r="F16" s="4">
         <v>2.1912123306928688</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>118</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1">
-        <v>38550</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s">
         <v>2</v>
       </c>
+      <c r="D17" s="4">
+        <v>43.504587615064203</v>
+      </c>
       <c r="E17" s="4">
-        <v>43.504587615064203</v>
-      </c>
-      <c r="F17" s="4">
         <v>1.272672897956832</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>119</v>
       </c>
       <c r="B18" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="1">
-        <v>29720</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" t="s">
         <v>277</v>
       </c>
+      <c r="D18" s="4">
+        <v>43.523674647031847</v>
+      </c>
       <c r="E18" s="4">
-        <v>43.523674647031847</v>
-      </c>
-      <c r="F18" s="4">
         <v>1.462113963892117</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F18" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>120</v>
       </c>
       <c r="B19" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="1">
-        <v>35190</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" t="s">
         <v>2</v>
       </c>
+      <c r="D19" s="4">
+        <v>43.592395522881169</v>
+      </c>
       <c r="E19" s="4">
-        <v>43.592395522881169</v>
-      </c>
-      <c r="F19" s="4">
         <v>1.3937086457565691</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F19" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>121</v>
       </c>
       <c r="B20" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="1">
-        <v>56110</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" t="s">
         <v>2</v>
       </c>
+      <c r="D20" s="4">
+        <v>43.544174552113503</v>
+      </c>
       <c r="E20" s="4">
-        <v>43.544174552113503</v>
-      </c>
-      <c r="F20" s="4">
         <v>1.4691083539895939</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F20" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>122</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="1">
-        <v>97170</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" t="s">
         <v>3</v>
       </c>
+      <c r="D21" s="4">
+        <v>43.865776383507743</v>
+      </c>
       <c r="E21" s="4">
-        <v>43.865776383507743</v>
-      </c>
-      <c r="F21" s="4">
         <v>-0.59365972661840649</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F21" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>123</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="1">
-        <v>97115</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" t="s">
         <v>281</v>
       </c>
+      <c r="D22" s="4">
+        <v>43.640043502896717</v>
+      </c>
       <c r="E22" s="4">
-        <v>43.640043502896717</v>
-      </c>
-      <c r="F22" s="4">
         <v>-1.3071990698184011</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F22" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>124</v>
       </c>
       <c r="B23" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="1">
-        <v>80480</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>46.020200614473268</v>
       </c>
       <c r="E23" s="4">
-        <v>46.020200614473268</v>
-      </c>
-      <c r="F23" s="4">
         <v>-1.0086991725762451</v>
       </c>
-      <c r="G23" t="s">
+      <c r="F23" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>125</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1">
-        <v>73440</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43.398288874715213</v>
       </c>
       <c r="E24" s="4">
-        <v>43.398288874715213</v>
-      </c>
-      <c r="F24" s="4">
         <v>2.2396154215294062</v>
       </c>
-      <c r="G24" t="s">
+      <c r="F24" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>126</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="1">
-        <v>97139</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" t="s">
         <v>3</v>
       </c>
+      <c r="D25" s="4">
+        <v>44.23639980184003</v>
+      </c>
       <c r="E25" s="4">
-        <v>44.23639980184003</v>
-      </c>
-      <c r="F25" s="4">
         <v>2.589887756585469</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F25" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>127</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1">
-        <v>38140</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" t="s">
         <v>282</v>
       </c>
+      <c r="D26" s="4">
+        <v>43.759736436219072</v>
+      </c>
       <c r="E26" s="4">
-        <v>43.759736436219072</v>
-      </c>
-      <c r="F26" s="4">
         <v>1.6794275396983549</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F26" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>128</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="1">
-        <v>97213</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4">
+        <v>44.031601615829352</v>
       </c>
       <c r="E27" s="4">
-        <v>44.031601615829352</v>
-      </c>
-      <c r="F27" s="4">
         <v>-8.9672193728331157E-2</v>
       </c>
-      <c r="G27" t="s">
+      <c r="F27" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>129</v>
       </c>
       <c r="B28" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="1">
-        <v>56230</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" t="s">
         <v>3</v>
       </c>
+      <c r="D28" s="4">
+        <v>43.425050360976762</v>
+      </c>
       <c r="E28" s="4">
-        <v>43.425050360976762</v>
-      </c>
-      <c r="F28" s="4">
         <v>1.641678375629007</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F28" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>130</v>
       </c>
       <c r="B29" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="1">
-        <v>22160</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4">
+        <v>43.675127637147497</v>
       </c>
       <c r="E29" s="4">
-        <v>43.675127637147497</v>
-      </c>
-      <c r="F29" s="4">
         <v>1.7813609104396271</v>
       </c>
-      <c r="G29" t="s">
+      <c r="F29" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>131</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="1">
-        <v>97200</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4">
+        <v>44.815039537082981</v>
       </c>
       <c r="E30" s="4">
-        <v>44.815039537082981</v>
-      </c>
-      <c r="F30" s="4">
         <v>1.5726398188409341</v>
       </c>
-      <c r="G30" t="s">
+      <c r="F30" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>132</v>
       </c>
       <c r="B31" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="1">
-        <v>97222</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" t="s">
         <v>3</v>
       </c>
+      <c r="D31" s="4">
+        <v>43.805475473401877</v>
+      </c>
       <c r="E31" s="4">
-        <v>43.805475473401877</v>
-      </c>
-      <c r="F31" s="4">
         <v>2.7568631362538079</v>
       </c>
-      <c r="G31" t="s">
+      <c r="F31" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>133</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="1">
-        <v>73210</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C32" t="s">
         <v>277</v>
       </c>
+      <c r="D32" s="4">
+        <v>43.224786024890932</v>
+      </c>
       <c r="E32" s="4">
-        <v>43.224786024890932</v>
-      </c>
-      <c r="F32" s="4">
         <v>1.2069623371025711</v>
       </c>
-      <c r="G32" t="s">
+      <c r="F32" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>134</v>
       </c>
       <c r="B33" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="1">
-        <v>35190</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" t="s">
         <v>2</v>
       </c>
+      <c r="D33" s="4">
+        <v>43.688798142932271</v>
+      </c>
       <c r="E33" s="4">
-        <v>43.688798142932271</v>
-      </c>
-      <c r="F33" s="4">
         <v>1.343604267603149</v>
       </c>
-      <c r="G33" t="s">
+      <c r="F33" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>135</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="1">
-        <v>97224</v>
-      </c>
-      <c r="D34" t="s">
-        <v>4</v>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44.336240087904748</v>
       </c>
       <c r="E34" s="4">
-        <v>44.336240087904748</v>
-      </c>
-      <c r="F34" s="4">
         <v>1.3021592866685019</v>
       </c>
-      <c r="G34" t="s">
+      <c r="F34" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>136</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="1">
-        <v>10140</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" t="s">
         <v>3</v>
       </c>
+      <c r="D35" s="4">
+        <v>43.46734167595325</v>
+      </c>
       <c r="E35" s="4">
-        <v>43.46734167595325</v>
-      </c>
-      <c r="F35" s="4">
         <v>1.4067061260196581</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>137</v>
       </c>
       <c r="B36" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="1">
-        <v>35400</v>
-      </c>
-      <c r="D36" t="s">
-        <v>4</v>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="4">
+        <v>46.191623207717917</v>
       </c>
       <c r="E36" s="4">
-        <v>46.191623207717917</v>
-      </c>
-      <c r="F36" s="4">
         <v>-0.23469717566457349</v>
       </c>
-      <c r="G36" t="s">
+      <c r="F36" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>138</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="1">
-        <v>22800</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37" t="s">
         <v>2</v>
       </c>
+      <c r="D37" s="4">
+        <v>43.661522525266427</v>
+      </c>
       <c r="E37" s="4">
-        <v>43.661522525266427</v>
-      </c>
-      <c r="F37" s="4">
         <v>1.335996211363671</v>
       </c>
-      <c r="G37" t="s">
+      <c r="F37" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>139</v>
       </c>
       <c r="B38" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="1">
-        <v>70600</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4</v>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="4">
+        <v>45.757009149436612</v>
       </c>
       <c r="E38" s="4">
-        <v>45.757009149436612</v>
-      </c>
-      <c r="F38" s="4">
         <v>-1.0583993045393929</v>
       </c>
-      <c r="G38" t="s">
+      <c r="F38" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>140</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="1">
-        <v>29180</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4</v>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4">
+        <v>43.952726814561203</v>
       </c>
       <c r="E39" s="4">
-        <v>43.952726814561203</v>
-      </c>
-      <c r="F39" s="4">
         <v>2.1927550318550639</v>
       </c>
-      <c r="G39" t="s">
+      <c r="F39" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>141</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="1">
-        <v>38140</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" t="s">
         <v>3</v>
       </c>
+      <c r="D40" s="4">
+        <v>44.685442714855547</v>
+      </c>
       <c r="E40" s="4">
-        <v>44.685442714855547</v>
-      </c>
-      <c r="F40" s="4">
         <v>-0.6982297350426141</v>
       </c>
-      <c r="G40" t="s">
+      <c r="F40" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>142</v>
       </c>
       <c r="B41" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="1">
-        <v>38100</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" t="s">
         <v>279</v>
       </c>
+      <c r="D41" s="4">
+        <v>43.553745277247657</v>
+      </c>
       <c r="E41" s="4">
-        <v>43.553745277247657</v>
-      </c>
-      <c r="F41" s="4">
         <v>1.4155239243447491</v>
       </c>
-      <c r="G41" t="s">
+      <c r="F41" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>143</v>
       </c>
       <c r="B42" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="1">
-        <v>97139</v>
-      </c>
-      <c r="D42" t="s">
-        <v>4</v>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44.101029820901992</v>
       </c>
       <c r="E42" s="4">
-        <v>44.101029820901992</v>
-      </c>
-      <c r="F42" s="4">
         <v>-0.85664155127427444</v>
       </c>
-      <c r="G42" t="s">
+      <c r="F42" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>144</v>
       </c>
       <c r="B43" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="1">
-        <v>35220</v>
-      </c>
-      <c r="D43" t="s">
-        <v>4</v>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="4">
+        <v>45.203596678720778</v>
       </c>
       <c r="E43" s="4">
-        <v>45.203596678720778</v>
-      </c>
-      <c r="F43" s="4">
         <v>1.277111195570644</v>
       </c>
-      <c r="G43" t="s">
+      <c r="F43" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>145</v>
       </c>
       <c r="B44" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="1">
-        <v>22260</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="4">
+        <v>45.467391863695127</v>
       </c>
       <c r="E44" s="4">
-        <v>45.467391863695127</v>
-      </c>
-      <c r="F44" s="4">
         <v>-0.48709525916613788</v>
       </c>
-      <c r="G44" t="s">
+      <c r="F44" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>146</v>
       </c>
       <c r="B45" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="1">
-        <v>56110</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4</v>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="4">
+        <v>43.233911777864932</v>
       </c>
       <c r="E45" s="4">
-        <v>43.233911777864932</v>
-      </c>
-      <c r="F45" s="4">
         <v>-0.32589958337379338</v>
       </c>
-      <c r="G45" t="s">
+      <c r="F45" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>147</v>
       </c>
       <c r="B46" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="1">
-        <v>80370</v>
-      </c>
-      <c r="D46" t="s">
-        <v>4</v>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44.200613387383207</v>
       </c>
       <c r="E46" s="4">
-        <v>44.200613387383207</v>
-      </c>
-      <c r="F46" s="4">
         <v>2.5086490936295092</v>
       </c>
-      <c r="G46" t="s">
+      <c r="F46" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>148</v>
       </c>
       <c r="B47" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="1">
-        <v>56230</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C47" t="s">
         <v>279</v>
       </c>
+      <c r="D47" s="4">
+        <v>43.750985763181717</v>
+      </c>
       <c r="E47" s="4">
-        <v>43.750985763181717</v>
-      </c>
-      <c r="F47" s="4">
         <v>1.3681353253161681</v>
       </c>
-      <c r="G47" t="s">
+      <c r="F47" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>149</v>
       </c>
       <c r="B48" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="1">
-        <v>29270</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4</v>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="4">
+        <v>43.339957258684898</v>
       </c>
       <c r="E48" s="4">
-        <v>43.339957258684898</v>
-      </c>
-      <c r="F48" s="4">
         <v>-9.8775599042808471E-2</v>
       </c>
-      <c r="G48" t="s">
+      <c r="F48" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>150</v>
       </c>
       <c r="B49" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="1">
-        <v>38110</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="4">
+        <v>44.971887020572062</v>
       </c>
       <c r="E49" s="4">
-        <v>44.971887020572062</v>
-      </c>
-      <c r="F49" s="4">
         <v>1.327118219976664</v>
       </c>
-      <c r="G49" t="s">
+      <c r="F49" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>151</v>
       </c>
       <c r="B50" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="1">
-        <v>35220</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C50" t="s">
         <v>280</v>
       </c>
+      <c r="D50" s="4">
+        <v>45.273786676879652</v>
+      </c>
       <c r="E50" s="4">
-        <v>45.273786676879652</v>
-      </c>
-      <c r="F50" s="4">
         <v>1.2200670358140471</v>
       </c>
-      <c r="G50" t="s">
+      <c r="F50" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>152</v>
       </c>
       <c r="B51" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="1">
-        <v>73660</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C51" t="s">
         <v>3</v>
       </c>
+      <c r="D51" s="4">
+        <v>43.736633361568757</v>
+      </c>
       <c r="E51" s="4">
-        <v>43.736633361568757</v>
-      </c>
-      <c r="F51" s="4">
         <v>-0.25075196884130863</v>
       </c>
-      <c r="G51" t="s">
+      <c r="F51" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>153</v>
       </c>
       <c r="B52" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="1">
-        <v>80670</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4</v>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="4">
+        <v>46.384416152336193</v>
       </c>
       <c r="E52" s="4">
-        <v>46.384416152336193</v>
-      </c>
-      <c r="F52" s="4">
         <v>-0.42757460198491609</v>
       </c>
-      <c r="G52" t="s">
+      <c r="F52" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>154</v>
       </c>
       <c r="B53" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="1">
-        <v>80140</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C53" t="s">
         <v>278</v>
       </c>
+      <c r="D53" s="4">
+        <v>45.666012748796653</v>
+      </c>
       <c r="E53" s="4">
-        <v>45.666012748796653</v>
-      </c>
-      <c r="F53" s="4">
         <v>2.258223357858181</v>
       </c>
-      <c r="G53" t="s">
+      <c r="F53" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>155</v>
       </c>
       <c r="B54" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="1">
-        <v>38140</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C54" t="s">
         <v>3</v>
       </c>
+      <c r="D54" s="4">
+        <v>45.017698644186027</v>
+      </c>
       <c r="E54" s="4">
-        <v>45.017698644186027</v>
-      </c>
-      <c r="F54" s="4">
         <v>-1.0701318832816289</v>
       </c>
-      <c r="G54" t="s">
+      <c r="F54" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>156</v>
       </c>
       <c r="B55" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="1">
-        <v>56230</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C55" t="s">
         <v>3</v>
       </c>
+      <c r="D55" s="4">
+        <v>43.602296067990117</v>
+      </c>
       <c r="E55" s="4">
-        <v>43.602296067990117</v>
-      </c>
-      <c r="F55" s="4">
         <v>1.247240373732994</v>
       </c>
-      <c r="G55" t="s">
+      <c r="F55" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>157</v>
       </c>
       <c r="B56" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="1">
-        <v>97190</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56" t="s">
         <v>3</v>
       </c>
+      <c r="D56" s="4">
+        <v>44.308696869209157</v>
+      </c>
       <c r="E56" s="4">
-        <v>44.308696869209157</v>
-      </c>
-      <c r="F56" s="4">
         <v>-0.15674583306753689</v>
       </c>
-      <c r="G56" t="s">
+      <c r="F56" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>158</v>
       </c>
       <c r="B57" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="1">
-        <v>80670</v>
-      </c>
-      <c r="D57" t="s">
-        <v>4</v>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="4">
+        <v>47.02516522258253</v>
       </c>
       <c r="E57" s="4">
-        <v>47.02516522258253</v>
-      </c>
-      <c r="F57" s="4">
         <v>-0.32493444924537263</v>
       </c>
-      <c r="G57" t="s">
+      <c r="F57" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>159</v>
       </c>
       <c r="B58" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="1">
-        <v>80410</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C58" t="s">
         <v>2</v>
       </c>
+      <c r="D58" s="4">
+        <v>43.61743746997265</v>
+      </c>
       <c r="E58" s="4">
-        <v>43.61743746997265</v>
-      </c>
-      <c r="F58" s="4">
         <v>1.489236925992679</v>
       </c>
-      <c r="G58" t="s">
+      <c r="F58" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>160</v>
       </c>
       <c r="B59" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="1">
-        <v>74500</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C59" t="s">
         <v>3</v>
       </c>
+      <c r="D59" s="4">
+        <v>43.689794187100681</v>
+      </c>
       <c r="E59" s="4">
-        <v>43.689794187100681</v>
-      </c>
-      <c r="F59" s="4">
         <v>3.4847748824814603E-2</v>
       </c>
-      <c r="G59" t="s">
+      <c r="F59" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>161</v>
       </c>
       <c r="B60" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="1">
-        <v>97113</v>
-      </c>
-      <c r="D60" t="s">
-        <v>4</v>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="4">
+        <v>44.510257661081397</v>
       </c>
       <c r="E60" s="4">
-        <v>44.510257661081397</v>
-      </c>
-      <c r="F60" s="4">
         <v>2.0605087666726698</v>
       </c>
-      <c r="G60" t="s">
+      <c r="F60" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>162</v>
       </c>
       <c r="B61" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="1">
-        <v>80360</v>
-      </c>
-      <c r="D61" t="s">
-        <v>4</v>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="4">
+        <v>44.366304801706526</v>
       </c>
       <c r="E61" s="4">
-        <v>44.366304801706526</v>
-      </c>
-      <c r="F61" s="4">
         <v>2.619535123864758</v>
       </c>
-      <c r="G61" t="s">
+      <c r="F61" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>163</v>
       </c>
       <c r="B62" t="s">
         <v>80</v>
       </c>
-      <c r="C62" s="1">
-        <v>22210</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C62" t="s">
         <v>2</v>
       </c>
+      <c r="D62" s="4">
+        <v>43.69895417790093</v>
+      </c>
       <c r="E62" s="4">
-        <v>43.69895417790093</v>
-      </c>
-      <c r="F62" s="4">
         <v>1.458688329882956</v>
       </c>
-      <c r="G62" t="s">
+      <c r="F62" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>164</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="1">
-        <v>10240</v>
-      </c>
-      <c r="D63" t="s">
-        <v>4</v>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="4">
+        <v>44.01882313274114</v>
       </c>
       <c r="E63" s="4">
-        <v>44.01882313274114</v>
-      </c>
-      <c r="F63" s="4">
         <v>2.133719345030769</v>
       </c>
-      <c r="G63" t="s">
+      <c r="F63" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>165</v>
       </c>
       <c r="B64" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="1">
-        <v>38520</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C64" t="s">
         <v>2</v>
       </c>
+      <c r="D64" s="4">
+        <v>44.639864313250371</v>
+      </c>
       <c r="E64" s="4">
-        <v>44.639864313250371</v>
-      </c>
-      <c r="F64" s="4">
         <v>0.51904416027984435</v>
       </c>
-      <c r="G64" t="s">
+      <c r="F64" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>166</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="1">
-        <v>52100</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C65" t="s">
         <v>2</v>
       </c>
+      <c r="D65" s="4">
+        <v>43.455878222339763</v>
+      </c>
       <c r="E65" s="4">
-        <v>43.455878222339763</v>
-      </c>
-      <c r="F65" s="4">
         <v>1.36666097500424</v>
       </c>
-      <c r="G65" t="s">
+      <c r="F65" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>167</v>
       </c>
       <c r="B66" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="1">
-        <v>97223</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C66" t="s">
         <v>278</v>
       </c>
+      <c r="D66" s="4">
+        <v>43.546964742994831</v>
+      </c>
       <c r="E66" s="4">
-        <v>43.546964742994831</v>
-      </c>
-      <c r="F66" s="4">
         <v>-1.5018684916647911</v>
       </c>
-      <c r="G66" t="s">
+      <c r="F66" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>168</v>
       </c>
       <c r="B67" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="1">
-        <v>80200</v>
-      </c>
-      <c r="D67" t="s">
-        <v>4</v>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="4">
+        <v>46.348069072404257</v>
       </c>
       <c r="E67" s="4">
-        <v>46.348069072404257</v>
-      </c>
-      <c r="F67" s="4">
         <v>-0.16829025664533201</v>
       </c>
-      <c r="G67" t="s">
+      <c r="F67" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>169</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="1">
-        <v>8150</v>
-      </c>
-      <c r="D68" t="s">
-        <v>4</v>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="4">
+        <v>45.317393116613573</v>
       </c>
       <c r="E68" s="4">
-        <v>45.317393116613573</v>
-      </c>
-      <c r="F68" s="4">
         <v>1.81143349409623</v>
       </c>
-      <c r="G68" t="s">
+      <c r="F68" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>170</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="1">
-        <v>10270</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C69" t="s">
         <v>2</v>
       </c>
+      <c r="D69" s="4">
+        <v>45.122764763608728</v>
+      </c>
       <c r="E69" s="4">
-        <v>45.122764763608728</v>
-      </c>
-      <c r="F69" s="4">
         <v>0.35821490577630122</v>
       </c>
-      <c r="G69" t="s">
+      <c r="F69" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>171</v>
       </c>
       <c r="B70" t="s">
         <v>39</v>
       </c>
-      <c r="C70" s="1">
-        <v>97230</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="C70" t="s">
         <v>2</v>
       </c>
+      <c r="D70" s="4">
+        <v>42.957860786326172</v>
+      </c>
       <c r="E70" s="4">
-        <v>42.957860786326172</v>
-      </c>
-      <c r="F70" s="4">
         <v>1.3055462494941481</v>
       </c>
-      <c r="G70" t="s">
+      <c r="F70" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>172</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="1">
-        <v>8150</v>
-      </c>
-      <c r="D71" t="s">
-        <v>4</v>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="4">
+        <v>43.988990562447412</v>
       </c>
       <c r="E71" s="4">
-        <v>43.988990562447412</v>
-      </c>
-      <c r="F71" s="4">
         <v>2.0114491418412861</v>
       </c>
-      <c r="G71" t="s">
+      <c r="F71" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>173</v>
       </c>
       <c r="B72" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="1">
-        <v>22210</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C72" t="s">
         <v>2</v>
       </c>
+      <c r="D72" s="4">
+        <v>43.535828048515711</v>
+      </c>
       <c r="E72" s="4">
-        <v>43.535828048515711</v>
-      </c>
-      <c r="F72" s="4">
         <v>1.4271835218257971</v>
       </c>
-      <c r="G72" t="s">
+      <c r="F72" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>174</v>
       </c>
       <c r="B73" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="1">
-        <v>80600</v>
-      </c>
-      <c r="D73" t="s">
-        <v>4</v>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="4">
+        <v>43.827314741953963</v>
       </c>
       <c r="E73" s="4">
-        <v>43.827314741953963</v>
-      </c>
-      <c r="F73" s="4">
         <v>1.6833237640940759</v>
       </c>
-      <c r="G73" t="s">
+      <c r="F73" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>175</v>
       </c>
       <c r="B74" t="s">
         <v>46</v>
       </c>
-      <c r="C74" s="1">
-        <v>97223</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4</v>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="4">
+        <v>44.556183382297483</v>
       </c>
       <c r="E74" s="4">
-        <v>44.556183382297483</v>
-      </c>
-      <c r="F74" s="4">
         <v>1.0436887227547931</v>
       </c>
-      <c r="G74" t="s">
+      <c r="F74" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>176</v>
       </c>
       <c r="B75" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="1">
-        <v>97224</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="C75" t="s">
         <v>278</v>
       </c>
+      <c r="D75" s="4">
+        <v>44.615048654883438</v>
+      </c>
       <c r="E75" s="4">
-        <v>44.615048654883438</v>
-      </c>
-      <c r="F75" s="4">
         <v>2.037814616865242</v>
       </c>
-      <c r="G75" t="s">
+      <c r="F75" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>177</v>
       </c>
       <c r="B76" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="1">
-        <v>1220</v>
-      </c>
-      <c r="D76" t="s">
-        <v>4</v>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="4">
+        <v>45.890967140188643</v>
       </c>
       <c r="E76" s="4">
-        <v>45.890967140188643</v>
-      </c>
-      <c r="F76" s="4">
         <v>1.791781899508069</v>
       </c>
-      <c r="G76" t="s">
+      <c r="F76" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>178</v>
       </c>
       <c r="B77" t="s">
         <v>57</v>
       </c>
-      <c r="C77" s="1">
-        <v>97139</v>
-      </c>
-      <c r="D77" t="s">
-        <v>4</v>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="4">
+        <v>44.524576532544437</v>
       </c>
       <c r="E77" s="4">
-        <v>44.524576532544437</v>
-      </c>
-      <c r="F77" s="4">
         <v>1.938529913542399</v>
       </c>
-      <c r="G77" t="s">
+      <c r="F77" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>179</v>
       </c>
       <c r="B78" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="1">
-        <v>35135</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C78" t="s">
         <v>3</v>
       </c>
+      <c r="D78" s="4">
+        <v>43.542103115805602</v>
+      </c>
       <c r="E78" s="4">
-        <v>43.542103115805602</v>
-      </c>
-      <c r="F78" s="4">
         <v>1.5619091447699751</v>
       </c>
-      <c r="G78" t="s">
+      <c r="F78" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>180</v>
       </c>
       <c r="B79" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="1">
-        <v>80600</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="C79" t="s">
         <v>280</v>
       </c>
+      <c r="D79" s="4">
+        <v>43.696536860470957</v>
+      </c>
       <c r="E79" s="4">
-        <v>43.696536860470957</v>
-      </c>
-      <c r="F79" s="4">
         <v>1.6989640281507099</v>
       </c>
-      <c r="G79" t="s">
+      <c r="F79" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>181</v>
       </c>
       <c r="B80" t="s">
         <v>41</v>
       </c>
-      <c r="C80" s="1">
-        <v>97128</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="C80" t="s">
         <v>3</v>
       </c>
+      <c r="D80" s="4">
+        <v>43.731609298220903</v>
+      </c>
       <c r="E80" s="4">
-        <v>43.731609298220903</v>
-      </c>
-      <c r="F80" s="4">
         <v>-1.0810702973637909</v>
       </c>
-      <c r="G80" t="s">
+      <c r="F80" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>182</v>
       </c>
       <c r="B81" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="1">
-        <v>97240</v>
-      </c>
-      <c r="D81" t="s">
-        <v>4</v>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="4">
+        <v>43.974274567555838</v>
       </c>
       <c r="E81" s="4">
-        <v>43.974274567555838</v>
-      </c>
-      <c r="F81" s="4">
         <v>-0.4775894473437714</v>
       </c>
-      <c r="G81" t="s">
+      <c r="F81" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>183</v>
       </c>
       <c r="B82" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="1">
-        <v>22400</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4</v>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="4">
+        <v>45.617025458113922</v>
       </c>
       <c r="E82" s="4">
-        <v>45.617025458113922</v>
-      </c>
-      <c r="F82" s="4">
         <v>8.7862241011261943E-2</v>
       </c>
-      <c r="G82" t="s">
+      <c r="F82" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>184</v>
       </c>
       <c r="B83" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="1">
-        <v>60530</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="C83" t="s">
         <v>278</v>
       </c>
+      <c r="D83" s="4">
+        <v>43.568487073397087</v>
+      </c>
       <c r="E83" s="4">
-        <v>43.568487073397087</v>
-      </c>
-      <c r="F83" s="4">
         <v>2.3861265321346008</v>
       </c>
-      <c r="G83" t="s">
+      <c r="F83" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>185</v>
       </c>
       <c r="B84" t="s">
         <v>27</v>
       </c>
-      <c r="C84" s="1">
-        <v>74390</v>
-      </c>
-      <c r="D84" t="s">
-        <v>4</v>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="4">
+        <v>44.334085247302298</v>
       </c>
       <c r="E84" s="4">
-        <v>44.334085247302298</v>
-      </c>
-      <c r="F84" s="4">
         <v>2.6368144178775839</v>
       </c>
-      <c r="G84" t="s">
+      <c r="F84" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>186</v>
       </c>
       <c r="B85" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="1">
-        <v>80670</v>
-      </c>
-      <c r="D85" t="s">
-        <v>4</v>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="4">
+        <v>46.341495872866801</v>
       </c>
       <c r="E85" s="4">
-        <v>46.341495872866801</v>
-      </c>
-      <c r="F85" s="4">
         <v>-0.32815625743931948</v>
       </c>
-      <c r="G85" t="s">
+      <c r="F85" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>187</v>
       </c>
       <c r="B86" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="1">
-        <v>97213</v>
-      </c>
-      <c r="D86" t="s">
-        <v>4</v>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="4">
+        <v>44.305333363141671</v>
       </c>
       <c r="E86" s="4">
-        <v>44.305333363141671</v>
-      </c>
-      <c r="F86" s="4">
         <v>0.53421427217025341</v>
       </c>
-      <c r="G86" t="s">
+      <c r="F86" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>188</v>
       </c>
       <c r="B87" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="1">
-        <v>97213</v>
-      </c>
-      <c r="D87" t="s">
-        <v>4</v>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="4">
+        <v>44.28854430813216</v>
       </c>
       <c r="E87" s="4">
-        <v>44.28854430813216</v>
-      </c>
-      <c r="F87" s="4">
         <v>0.87223412066404948</v>
       </c>
-      <c r="G87" t="s">
+      <c r="F87" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>189</v>
       </c>
       <c r="B88" t="s">
         <v>80</v>
       </c>
-      <c r="C88" s="1">
-        <v>22540</v>
-      </c>
-      <c r="D88" t="s">
-        <v>4</v>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="4">
+        <v>45.632216058427808</v>
       </c>
       <c r="E88" s="4">
-        <v>45.632216058427808</v>
-      </c>
-      <c r="F88" s="4">
         <v>-0.58624293330177013</v>
       </c>
-      <c r="G88" t="s">
+      <c r="F88" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>190</v>
       </c>
       <c r="B89" t="s">
         <v>27</v>
       </c>
-      <c r="C89" s="1">
-        <v>38350</v>
-      </c>
-      <c r="D89" t="s">
-        <v>4</v>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="4">
+        <v>46.110928854298052</v>
       </c>
       <c r="E89" s="4">
-        <v>46.110928854298052</v>
-      </c>
-      <c r="F89" s="4">
         <v>-1.191277663423489</v>
       </c>
-      <c r="G89" t="s">
+      <c r="F89" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>191</v>
       </c>
       <c r="B90" t="s">
         <v>80</v>
       </c>
-      <c r="C90" s="1">
-        <v>56700</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="C90" t="s">
         <v>278</v>
       </c>
+      <c r="D90" s="4">
+        <v>43.388483133588601</v>
+      </c>
       <c r="E90" s="4">
-        <v>43.388483133588601</v>
-      </c>
-      <c r="F90" s="4">
         <v>-0.28879121821512449</v>
       </c>
-      <c r="G90" t="s">
+      <c r="F90" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>192</v>
       </c>
       <c r="B91" t="s">
         <v>80</v>
       </c>
-      <c r="C91" s="1">
-        <v>56220</v>
-      </c>
-      <c r="D91" t="s">
-        <v>4</v>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="4">
+        <v>44.68029885859459</v>
       </c>
       <c r="E91" s="4">
-        <v>44.68029885859459</v>
-      </c>
-      <c r="F91" s="4">
         <v>1.141700999669965</v>
       </c>
-      <c r="G91" t="s">
+      <c r="F91" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>193</v>
       </c>
       <c r="B92" t="s">
         <v>80</v>
       </c>
-      <c r="C92" s="1">
-        <v>35550</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="C92" t="s">
         <v>3</v>
       </c>
+      <c r="D92" s="4">
+        <v>43.658101078646403</v>
+      </c>
       <c r="E92" s="4">
-        <v>43.658101078646403</v>
-      </c>
-      <c r="F92" s="4">
         <v>1.4597250705289491</v>
       </c>
-      <c r="G92" t="s">
+      <c r="F92" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>194</v>
       </c>
       <c r="B93" t="s">
         <v>79</v>
       </c>
-      <c r="C93" s="1">
-        <v>60870</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="C93" t="s">
         <v>3</v>
       </c>
+      <c r="D93" s="4">
+        <v>43.69400867593771</v>
+      </c>
       <c r="E93" s="4">
-        <v>43.69400867593771</v>
-      </c>
-      <c r="F93" s="4">
         <v>1.3882260276152789</v>
       </c>
-      <c r="G93" t="s">
+      <c r="F93" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>195</v>
       </c>
       <c r="B94" t="s">
         <v>26</v>
       </c>
-      <c r="C94" s="1">
-        <v>8320</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="C94" t="s">
         <v>2</v>
       </c>
+      <c r="D94" s="4">
+        <v>43.532464613988651</v>
+      </c>
       <c r="E94" s="4">
-        <v>43.532464613988651</v>
-      </c>
-      <c r="F94" s="4">
         <v>1.4641987512971451</v>
       </c>
-      <c r="G94" t="s">
+      <c r="F94" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>196</v>
       </c>
       <c r="B95" t="s">
         <v>42</v>
       </c>
-      <c r="C95" s="1">
-        <v>97212</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="C95" t="s">
         <v>281</v>
       </c>
+      <c r="D95" s="4">
+        <v>43.832972329767173</v>
+      </c>
       <c r="E95" s="4">
-        <v>43.832972329767173</v>
-      </c>
-      <c r="F95" s="4">
         <v>2.9896469677016451</v>
       </c>
-      <c r="G95" t="s">
+      <c r="F95" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>197</v>
       </c>
       <c r="B96" t="s">
         <v>27</v>
       </c>
-      <c r="C96" s="1">
-        <v>74140</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="C96" t="s">
         <v>3</v>
       </c>
+      <c r="D96" s="4">
+        <v>43.741726879250741</v>
+      </c>
       <c r="E96" s="4">
-        <v>43.741726879250741</v>
-      </c>
-      <c r="F96" s="4">
         <v>0.23695170074281829</v>
       </c>
-      <c r="G96" t="s">
+      <c r="F96" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>198</v>
       </c>
       <c r="B97" t="s">
         <v>80</v>
       </c>
-      <c r="C97" s="1">
-        <v>22130</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="C97" t="s">
         <v>2</v>
       </c>
+      <c r="D97" s="4">
+        <v>43.502005217593947</v>
+      </c>
       <c r="E97" s="4">
-        <v>43.502005217593947</v>
-      </c>
-      <c r="F97" s="4">
         <v>1.427007206473045</v>
       </c>
-      <c r="G97" t="s">
+      <c r="F97" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>199</v>
       </c>
       <c r="B98" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="1">
-        <v>35000</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="C98" t="s">
         <v>3</v>
       </c>
+      <c r="D98" s="4">
+        <v>44.86578776031071</v>
+      </c>
       <c r="E98" s="4">
-        <v>44.86578776031071</v>
-      </c>
-      <c r="F98" s="4">
         <v>-0.7510696971327625</v>
       </c>
-      <c r="G98" t="s">
+      <c r="F98" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>200</v>
       </c>
       <c r="B99" t="s">
         <v>80</v>
       </c>
-      <c r="C99" s="1">
-        <v>22310</v>
-      </c>
-      <c r="D99" t="s">
-        <v>4</v>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="4">
+        <v>43.176808349068068</v>
       </c>
       <c r="E99" s="4">
-        <v>43.176808349068068</v>
-      </c>
-      <c r="F99" s="4">
         <v>-1.1669374609046179</v>
       </c>
-      <c r="G99" t="s">
+      <c r="F99" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>201</v>
       </c>
       <c r="B100" t="s">
         <v>27</v>
       </c>
-      <c r="C100" s="1">
-        <v>73600</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="C100" t="s">
         <v>2</v>
       </c>
+      <c r="D100" s="4">
+        <v>43.538866912550617</v>
+      </c>
       <c r="E100" s="4">
-        <v>43.538866912550617</v>
-      </c>
-      <c r="F100" s="4">
         <v>1.444293384528492</v>
       </c>
-      <c r="G100" t="s">
+      <c r="F100" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>202</v>
       </c>
       <c r="B101" t="s">
         <v>79</v>
       </c>
-      <c r="C101" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="C101" t="s">
         <v>2</v>
       </c>
+      <c r="D101" s="4">
+        <v>43.597421255884598</v>
+      </c>
       <c r="E101" s="4">
-        <v>43.597421255884598</v>
-      </c>
-      <c r="F101" s="4">
         <v>1.4742650312607619</v>
       </c>
-      <c r="G101" t="s">
+      <c r="F101" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>203</v>
       </c>
       <c r="B102" t="s">
         <v>80</v>
       </c>
-      <c r="C102" s="1">
-        <v>35137</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="C102" t="s">
         <v>3</v>
       </c>
+      <c r="D102" s="4">
+        <v>43.469349554970442</v>
+      </c>
       <c r="E102" s="4">
-        <v>43.469349554970442</v>
-      </c>
-      <c r="F102" s="4">
         <v>1.2919649426316191</v>
       </c>
-      <c r="G102" t="s">
+      <c r="F102" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>204</v>
       </c>
       <c r="B103" t="s">
         <v>80</v>
       </c>
-      <c r="C103" s="1">
-        <v>35160</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="C103" t="s">
         <v>276</v>
       </c>
+      <c r="D103" s="4">
+        <v>43.587124606814569</v>
+      </c>
       <c r="E103" s="4">
-        <v>43.587124606814569</v>
-      </c>
-      <c r="F103" s="4">
         <v>1.3288258479504409</v>
       </c>
-      <c r="G103" t="s">
+      <c r="F103" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>205</v>
       </c>
       <c r="B104" t="s">
         <v>80</v>
       </c>
-      <c r="C104" s="1">
-        <v>22210</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="C104" t="s">
         <v>2</v>
       </c>
+      <c r="D104" s="4">
+        <v>43.58565444619849</v>
+      </c>
       <c r="E104" s="4">
-        <v>43.58565444619849</v>
-      </c>
-      <c r="F104" s="4">
         <v>1.43631176914862</v>
       </c>
-      <c r="G104" t="s">
+      <c r="F104" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>206</v>
       </c>
       <c r="B105" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="1">
-        <v>74410</v>
-      </c>
-      <c r="D105" t="s">
-        <v>4</v>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="4">
+        <v>45.792641444380301</v>
       </c>
       <c r="E105" s="4">
-        <v>45.792641444380301</v>
-      </c>
-      <c r="F105" s="4">
         <v>2.2220129767655861</v>
       </c>
-      <c r="G105" t="s">
+      <c r="F105" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>207</v>
       </c>
       <c r="B106" t="s">
         <v>80</v>
       </c>
-      <c r="C106" s="1">
-        <v>56230</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="C106" t="s">
         <v>3</v>
       </c>
+      <c r="D106" s="4">
+        <v>43.638494127870281</v>
+      </c>
       <c r="E106" s="4">
-        <v>43.638494127870281</v>
-      </c>
-      <c r="F106" s="4">
         <v>1.30334232159937</v>
       </c>
-      <c r="G106" t="s">
+      <c r="F106" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>208</v>
       </c>
       <c r="B107" t="s">
         <v>80</v>
       </c>
-      <c r="C107" s="1">
-        <v>56700</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="C107" t="s">
         <v>280</v>
       </c>
+      <c r="D107" s="4">
+        <v>43.332474497102467</v>
+      </c>
       <c r="E107" s="4">
-        <v>43.332474497102467</v>
-      </c>
-      <c r="F107" s="4">
         <v>-1.1288177886531201</v>
       </c>
-      <c r="G107" t="s">
+      <c r="F107" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>209</v>
       </c>
       <c r="B108" t="s">
         <v>26</v>
       </c>
-      <c r="C108" s="1">
-        <v>8150</v>
-      </c>
-      <c r="D108" t="s">
-        <v>4</v>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="4">
+        <v>44.502973369316827</v>
       </c>
       <c r="E108" s="4">
-        <v>44.502973369316827</v>
-      </c>
-      <c r="F108" s="4">
         <v>2.6753727175410429</v>
       </c>
-      <c r="G108" t="s">
+      <c r="F108" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>210</v>
       </c>
       <c r="B109" t="s">
         <v>80</v>
       </c>
-      <c r="C109" s="1">
-        <v>35760</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="C109" t="s">
         <v>3</v>
       </c>
+      <c r="D109" s="4">
+        <v>43.530704112445108</v>
+      </c>
       <c r="E109" s="4">
-        <v>43.530704112445108</v>
-      </c>
-      <c r="F109" s="4">
         <v>1.3098066210210739</v>
       </c>
-      <c r="G109" t="s">
+      <c r="F109" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>211</v>
       </c>
       <c r="B110" t="s">
         <v>26</v>
       </c>
-      <c r="C110" s="1">
-        <v>8090</v>
-      </c>
-      <c r="D110" t="s">
-        <v>4</v>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" s="4">
+        <v>42.870654435856963</v>
       </c>
       <c r="E110" s="4">
-        <v>42.870654435856963</v>
-      </c>
-      <c r="F110" s="4">
         <v>0.47749228379874648</v>
       </c>
-      <c r="G110" t="s">
+      <c r="F110" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>212</v>
       </c>
       <c r="B111" t="s">
         <v>27</v>
       </c>
-      <c r="C111" s="1">
-        <v>38840</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="C111" t="s">
         <v>2</v>
       </c>
+      <c r="D111" s="4">
+        <v>43.751741205818931</v>
+      </c>
       <c r="E111" s="4">
-        <v>43.751741205818931</v>
-      </c>
-      <c r="F111" s="4">
         <v>1.324417661259879</v>
       </c>
-      <c r="G111" t="s">
+      <c r="F111" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>213</v>
       </c>
       <c r="B112" t="s">
         <v>80</v>
       </c>
-      <c r="C112" s="1">
-        <v>29710</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="C112" t="s">
         <v>279</v>
       </c>
+      <c r="D112" s="4">
+        <v>44.928944042227023</v>
+      </c>
       <c r="E112" s="4">
-        <v>44.928944042227023</v>
-      </c>
-      <c r="F112" s="4">
         <v>0.39855884201124703</v>
       </c>
-      <c r="G112" t="s">
+      <c r="F112" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>214</v>
       </c>
       <c r="B113" t="s">
         <v>56</v>
       </c>
-      <c r="C113" s="1">
-        <v>97233</v>
-      </c>
-      <c r="D113" t="s">
-        <v>4</v>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="4">
+        <v>43.445651753351271</v>
       </c>
       <c r="E113" s="4">
-        <v>43.445651753351271</v>
-      </c>
-      <c r="F113" s="4">
         <v>-1.4958648630737159</v>
       </c>
-      <c r="G113" t="s">
+      <c r="F113" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>215</v>
       </c>
       <c r="B114" t="s">
         <v>49</v>
       </c>
-      <c r="C114" s="1">
-        <v>97240</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="C114" t="s">
         <v>3</v>
       </c>
+      <c r="D114" s="4">
+        <v>43.618602301464144</v>
+      </c>
       <c r="E114" s="4">
-        <v>43.618602301464144</v>
-      </c>
-      <c r="F114" s="4">
         <v>-0.74856244926560922</v>
       </c>
-      <c r="G114" t="s">
+      <c r="F114" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>216</v>
       </c>
       <c r="B115" t="s">
         <v>80</v>
       </c>
-      <c r="C115" s="1">
-        <v>22930</v>
-      </c>
-      <c r="D115" t="s">
-        <v>4</v>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="4">
+        <v>46.270490302690831</v>
       </c>
       <c r="E115" s="4">
-        <v>46.270490302690831</v>
-      </c>
-      <c r="F115" s="4">
         <v>-0.46749593718520932</v>
       </c>
-      <c r="G115" t="s">
+      <c r="F115" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>217</v>
       </c>
       <c r="B116" t="s">
         <v>80</v>
       </c>
-      <c r="C116" s="1">
-        <v>22540</v>
-      </c>
-      <c r="D116" t="s">
-        <v>4</v>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="4">
+        <v>45.373684252251962</v>
       </c>
       <c r="E116" s="4">
-        <v>45.373684252251962</v>
-      </c>
-      <c r="F116" s="4">
         <v>1.949769284829578</v>
       </c>
-      <c r="G116" t="s">
+      <c r="F116" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>218</v>
       </c>
       <c r="B117" t="s">
         <v>80</v>
       </c>
-      <c r="C117" s="1">
-        <v>22930</v>
-      </c>
-      <c r="D117" t="s">
-        <v>4</v>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="4">
+        <v>46.177962893950777</v>
       </c>
       <c r="E117" s="4">
-        <v>46.177962893950777</v>
-      </c>
-      <c r="F117" s="4">
         <v>-0.39830786185247857</v>
       </c>
-      <c r="G117" t="s">
+      <c r="F117" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>219</v>
       </c>
       <c r="B118" t="s">
         <v>79</v>
       </c>
-      <c r="C118" s="1">
-        <v>80460</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="C118" t="s">
         <v>2</v>
       </c>
+      <c r="D118" s="4">
+        <v>43.742729465912262</v>
+      </c>
       <c r="E118" s="4">
-        <v>43.742729465912262</v>
-      </c>
-      <c r="F118" s="4">
         <v>1.4060771641040219</v>
       </c>
-      <c r="G118" t="s">
+      <c r="F118" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>220</v>
       </c>
       <c r="B119" t="s">
         <v>79</v>
       </c>
-      <c r="C119" s="1">
-        <v>80160</v>
-      </c>
-      <c r="D119" t="s">
-        <v>4</v>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="4">
+        <v>43.263410914464778</v>
       </c>
       <c r="E119" s="4">
-        <v>43.263410914464778</v>
-      </c>
-      <c r="F119" s="4">
         <v>-0.40636201242220649</v>
       </c>
-      <c r="G119" t="s">
+      <c r="F119" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>221</v>
       </c>
       <c r="B120" t="s">
         <v>79</v>
       </c>
-      <c r="C120" s="1">
-        <v>80410</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="C120" t="s">
         <v>2</v>
       </c>
+      <c r="D120" s="4">
+        <v>43.510600410736302</v>
+      </c>
       <c r="E120" s="4">
-        <v>43.510600410736302</v>
-      </c>
-      <c r="F120" s="4">
         <v>1.451151457999492</v>
       </c>
-      <c r="G120" t="s">
+      <c r="F120" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>222</v>
       </c>
       <c r="B121" t="s">
         <v>80</v>
       </c>
-      <c r="C121" s="1">
-        <v>35760</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="C121" t="s">
         <v>3</v>
       </c>
+      <c r="D121" s="4">
+        <v>43.488638150347583</v>
+      </c>
       <c r="E121" s="4">
-        <v>43.488638150347583</v>
-      </c>
-      <c r="F121" s="4">
         <v>1.374920883748052</v>
       </c>
-      <c r="G121" t="s">
+      <c r="F121" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>223</v>
       </c>
       <c r="B122" t="s">
         <v>49</v>
       </c>
-      <c r="C122" s="1">
-        <v>97222</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="C122" t="s">
         <v>281</v>
       </c>
+      <c r="D122" s="4">
+        <v>43.627123058362542</v>
+      </c>
       <c r="E122" s="4">
-        <v>43.627123058362542</v>
-      </c>
-      <c r="F122" s="4">
         <v>-1.351230140078868</v>
       </c>
-      <c r="G122" t="s">
+      <c r="F122" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>224</v>
       </c>
       <c r="B123" t="s">
         <v>80</v>
       </c>
-      <c r="C123" s="1">
-        <v>35220</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="C123" t="s">
         <v>2</v>
       </c>
+      <c r="D123" s="4">
+        <v>43.389995543902081</v>
+      </c>
       <c r="E123" s="4">
-        <v>43.389995543902081</v>
-      </c>
-      <c r="F123" s="4">
         <v>1.244120185807821</v>
       </c>
-      <c r="G123" t="s">
+      <c r="F123" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>225</v>
       </c>
       <c r="B124" t="s">
         <v>51</v>
       </c>
-      <c r="C124" s="1">
-        <v>97217</v>
-      </c>
-      <c r="D124" t="s">
-        <v>4</v>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="4">
+        <v>43.480802418775497</v>
       </c>
       <c r="E124" s="4">
-        <v>43.480802418775497</v>
-      </c>
-      <c r="F124" s="4">
         <v>-1.486633608157186</v>
       </c>
-      <c r="G124" t="s">
+      <c r="F124" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>226</v>
       </c>
       <c r="B125" t="s">
         <v>80</v>
       </c>
-      <c r="C125" s="1">
-        <v>56230</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="C125" t="s">
         <v>2</v>
       </c>
+      <c r="D125" s="4">
+        <v>43.395607320467398</v>
+      </c>
       <c r="E125" s="4">
-        <v>43.395607320467398</v>
-      </c>
-      <c r="F125" s="4">
         <v>1.460082880064552</v>
       </c>
-      <c r="G125" t="s">
+      <c r="F125" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>227</v>
       </c>
       <c r="B126" t="s">
         <v>27</v>
       </c>
-      <c r="C126" s="1">
-        <v>74120</v>
-      </c>
-      <c r="D126" t="s">
-        <v>4</v>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="4">
+        <v>43.352705044726093</v>
       </c>
       <c r="E126" s="4">
-        <v>43.352705044726093</v>
-      </c>
-      <c r="F126" s="4">
         <v>-0.45808832891586221</v>
       </c>
-      <c r="G126" t="s">
+      <c r="F126" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>228</v>
       </c>
       <c r="B127" t="s">
         <v>44</v>
       </c>
-      <c r="C127" s="1">
-        <v>97190</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="C127" t="s">
         <v>3</v>
       </c>
+      <c r="D127" s="4">
+        <v>45.098011072928053</v>
+      </c>
       <c r="E127" s="4">
-        <v>45.098011072928053</v>
-      </c>
-      <c r="F127" s="4">
         <v>-0.91665835385084316</v>
       </c>
-      <c r="G127" t="s">
+      <c r="F127" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>229</v>
       </c>
       <c r="B128" t="s">
         <v>80</v>
       </c>
-      <c r="C128" s="1">
-        <v>35220</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="C128" t="s">
         <v>2</v>
       </c>
+      <c r="D128" s="4">
+        <v>43.428484894638878</v>
+      </c>
       <c r="E128" s="4">
-        <v>43.428484894638878</v>
-      </c>
-      <c r="F128" s="4">
         <v>1.2084151437018349</v>
       </c>
-      <c r="G128" t="s">
+      <c r="F128" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>230</v>
       </c>
       <c r="B129" t="s">
         <v>35</v>
       </c>
-      <c r="C129" s="1">
-        <v>97212</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="C129" t="s">
         <v>278</v>
       </c>
+      <c r="D129" s="4">
+        <v>44.711622085409928</v>
+      </c>
       <c r="E129" s="4">
-        <v>44.711622085409928</v>
-      </c>
-      <c r="F129" s="4">
         <v>1.699694453686952</v>
       </c>
-      <c r="G129" t="s">
+      <c r="F129" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>231</v>
       </c>
       <c r="B130" t="s">
         <v>27</v>
       </c>
-      <c r="C130" s="1">
-        <v>38550</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="C130" t="s">
         <v>3</v>
       </c>
+      <c r="D130" s="4">
+        <v>43.459664846609911</v>
+      </c>
       <c r="E130" s="4">
-        <v>43.459664846609911</v>
-      </c>
-      <c r="F130" s="4">
         <v>0.5430174456270308</v>
       </c>
-      <c r="G130" t="s">
+      <c r="F130" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>232</v>
       </c>
       <c r="B131" t="s">
         <v>80</v>
       </c>
-      <c r="C131" s="1">
-        <v>22310</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="C131" t="s">
         <v>2</v>
       </c>
+      <c r="D131" s="4">
+        <v>43.605157595445412</v>
+      </c>
       <c r="E131" s="4">
-        <v>43.605157595445412</v>
-      </c>
-      <c r="F131" s="4">
         <v>1.4804460071370109</v>
       </c>
-      <c r="G131" t="s">
+      <c r="F131" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>233</v>
       </c>
       <c r="B132" t="s">
         <v>79</v>
       </c>
-      <c r="C132" s="1">
-        <v>60700</v>
-      </c>
-      <c r="D132" t="s">
-        <v>4</v>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="4">
+        <v>46.100083901189343</v>
       </c>
       <c r="E132" s="4">
-        <v>46.100083901189343</v>
-      </c>
-      <c r="F132" s="4">
         <v>0.74984765955367949</v>
       </c>
-      <c r="G132" t="s">
+      <c r="F132" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>234</v>
       </c>
       <c r="B133" t="s">
         <v>80</v>
       </c>
-      <c r="C133" s="1">
-        <v>56230</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="C133" t="s">
         <v>3</v>
       </c>
+      <c r="D133" s="4">
+        <v>43.748536757544869</v>
+      </c>
       <c r="E133" s="4">
-        <v>43.748536757544869</v>
-      </c>
-      <c r="F133" s="4">
         <v>1.4402319518284239</v>
       </c>
-      <c r="G133" t="s">
+      <c r="F133" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>235</v>
       </c>
       <c r="B134" t="s">
         <v>42</v>
       </c>
-      <c r="C134" s="1">
-        <v>97212</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="C134" t="s">
         <v>3</v>
       </c>
+      <c r="D134" s="4">
+        <v>43.808335191835198</v>
+      </c>
       <c r="E134" s="4">
-        <v>43.808335191835198</v>
-      </c>
-      <c r="F134" s="4">
         <v>2.962146738329682</v>
       </c>
-      <c r="G134" t="s">
+      <c r="F134" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>236</v>
       </c>
       <c r="B135" t="s">
         <v>80</v>
       </c>
-      <c r="C135" s="1">
-        <v>22160</v>
-      </c>
-      <c r="D135" t="s">
-        <v>4</v>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" s="4">
+        <v>43.945641779210767</v>
       </c>
       <c r="E135" s="4">
-        <v>43.945641779210767</v>
-      </c>
-      <c r="F135" s="4">
         <v>1.5646920764597889</v>
       </c>
-      <c r="G135" t="s">
+      <c r="F135" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>237</v>
       </c>
       <c r="B136" t="s">
         <v>79</v>
       </c>
-      <c r="C136" s="1">
-        <v>2100</v>
-      </c>
-      <c r="D136" t="s">
-        <v>4</v>
+      <c r="C136" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="4">
+        <v>45.845597086816419</v>
       </c>
       <c r="E136" s="4">
-        <v>45.845597086816419</v>
-      </c>
-      <c r="F136" s="4">
         <v>-0.29323050702895898</v>
       </c>
-      <c r="G136" t="s">
+      <c r="F136" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>238</v>
       </c>
       <c r="B137" t="s">
         <v>49</v>
       </c>
-      <c r="C137" s="1">
-        <v>97213</v>
-      </c>
-      <c r="D137" t="s">
-        <v>4</v>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="4">
+        <v>43.753567263120608</v>
       </c>
       <c r="E137" s="4">
-        <v>43.753567263120608</v>
-      </c>
-      <c r="F137" s="4">
         <v>-1.088389368219238</v>
       </c>
-      <c r="G137" t="s">
+      <c r="F137" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>239</v>
       </c>
       <c r="B138" t="s">
         <v>39</v>
       </c>
-      <c r="C138" s="1">
-        <v>97223</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="C138" t="s">
         <v>276</v>
       </c>
+      <c r="D138" s="4">
+        <v>43.512782096962333</v>
+      </c>
       <c r="E138" s="4">
-        <v>43.512782096962333</v>
-      </c>
-      <c r="F138" s="4">
         <v>-1.4007586445954761</v>
       </c>
-      <c r="G138" t="s">
+      <c r="F138" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>240</v>
       </c>
       <c r="B139" t="s">
         <v>57</v>
       </c>
-      <c r="C139" s="1">
-        <v>97139</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="C139" t="s">
         <v>280</v>
       </c>
+      <c r="D139" s="4">
+        <v>43.539689911422521</v>
+      </c>
       <c r="E139" s="4">
-        <v>43.539689911422521</v>
-      </c>
-      <c r="F139" s="4">
         <v>-1.3081594724558001</v>
       </c>
-      <c r="G139" t="s">
+      <c r="F139" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>241</v>
       </c>
       <c r="B140" t="s">
         <v>26</v>
       </c>
-      <c r="C140" s="1">
-        <v>52100</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="C140" t="s">
         <v>2</v>
       </c>
+      <c r="D140" s="4">
+        <v>43.575263670453602</v>
+      </c>
       <c r="E140" s="4">
-        <v>43.575263670453602</v>
-      </c>
-      <c r="F140" s="4">
         <v>1.46536217660358</v>
       </c>
-      <c r="G140" t="s">
+      <c r="F140" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>242</v>
       </c>
       <c r="B141" t="s">
         <v>51</v>
       </c>
-      <c r="C141" s="1">
-        <v>97217</v>
-      </c>
-      <c r="D141" t="s">
-        <v>4</v>
+      <c r="C141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" s="4">
+        <v>44.376306391728072</v>
       </c>
       <c r="E141" s="4">
-        <v>44.376306391728072</v>
-      </c>
-      <c r="F141" s="4">
         <v>1.7127569680681161</v>
       </c>
-      <c r="G141" t="s">
+      <c r="F141" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>243</v>
       </c>
       <c r="B142" t="s">
         <v>80</v>
       </c>
-      <c r="C142" s="1">
-        <v>35120</v>
-      </c>
-      <c r="D142" t="s">
-        <v>4</v>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" s="4">
+        <v>45.620728042542368</v>
       </c>
       <c r="E142" s="4">
-        <v>45.620728042542368</v>
-      </c>
-      <c r="F142" s="4">
         <v>0.1042200271443931</v>
       </c>
-      <c r="G142" t="s">
+      <c r="F142" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>244</v>
       </c>
       <c r="B143" t="s">
         <v>80</v>
       </c>
-      <c r="C143" s="1">
-        <v>29410</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="C143" t="s">
         <v>2</v>
       </c>
+      <c r="D143" s="4">
+        <v>44.774358953717943</v>
+      </c>
       <c r="E143" s="4">
-        <v>44.774358953717943</v>
-      </c>
-      <c r="F143" s="4">
         <v>1.1163769971579489</v>
       </c>
-      <c r="G143" t="s">
+      <c r="F143" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>245</v>
       </c>
       <c r="B144" t="s">
         <v>80</v>
       </c>
-      <c r="C144" s="1">
-        <v>56420</v>
-      </c>
-      <c r="D144" t="s">
-        <v>4</v>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" s="4">
+        <v>44.094864773070903</v>
       </c>
       <c r="E144" s="4">
-        <v>44.094864773070903</v>
-      </c>
-      <c r="F144" s="4">
         <v>2.236332350267817</v>
       </c>
-      <c r="G144" t="s">
+      <c r="F144" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>246</v>
       </c>
       <c r="B145" t="s">
         <v>80</v>
       </c>
-      <c r="C145" s="1">
-        <v>35320</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="C145" t="s">
         <v>2</v>
       </c>
+      <c r="D145" s="4">
+        <v>43.722301516777449</v>
+      </c>
       <c r="E145" s="4">
-        <v>43.722301516777449</v>
-      </c>
-      <c r="F145" s="4">
         <v>1.45399402875325</v>
       </c>
-      <c r="G145" t="s">
+      <c r="F145" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>247</v>
       </c>
       <c r="B146" t="s">
         <v>79</v>
       </c>
-      <c r="C146" s="1">
-        <v>2100</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="C146" t="s">
         <v>279</v>
       </c>
+      <c r="D146" s="4">
+        <v>43.64109205402287</v>
+      </c>
       <c r="E146" s="4">
-        <v>43.64109205402287</v>
-      </c>
-      <c r="F146" s="4">
         <v>1.303167238655301</v>
       </c>
-      <c r="G146" t="s">
+      <c r="F146" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>248</v>
       </c>
       <c r="B147" t="s">
         <v>26</v>
       </c>
-      <c r="C147" s="1">
-        <v>52000</v>
-      </c>
-      <c r="D147" t="s">
-        <v>4</v>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" s="4">
+        <v>46.954218043540301</v>
       </c>
       <c r="E147" s="4">
-        <v>46.954218043540301</v>
-      </c>
-      <c r="F147" s="4">
         <v>-0.68733283191230543</v>
       </c>
-      <c r="G147" t="s">
+      <c r="F147" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>249</v>
       </c>
       <c r="B148" t="s">
         <v>26</v>
       </c>
-      <c r="C148" s="1">
-        <v>52100</v>
-      </c>
-      <c r="D148" t="s">
+      <c r="C148" t="s">
         <v>2</v>
       </c>
+      <c r="D148" s="4">
+        <v>43.49273823154067</v>
+      </c>
       <c r="E148" s="4">
-        <v>43.49273823154067</v>
-      </c>
-      <c r="F148" s="4">
         <v>1.4895928516349179</v>
       </c>
-      <c r="G148" t="s">
+      <c r="F148" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>250</v>
       </c>
       <c r="B149" t="s">
         <v>80</v>
       </c>
-      <c r="C149" s="1">
-        <v>22130</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="C149" t="s">
         <v>2</v>
       </c>
+      <c r="D149" s="4">
+        <v>43.600129524252807</v>
+      </c>
       <c r="E149" s="4">
-        <v>43.600129524252807</v>
-      </c>
-      <c r="F149" s="4">
         <v>1.527299343925842</v>
       </c>
-      <c r="G149" t="s">
+      <c r="F149" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>251</v>
       </c>
       <c r="B150" t="s">
         <v>27</v>
       </c>
-      <c r="C150" s="1">
-        <v>38140</v>
-      </c>
-      <c r="D150" t="s">
-        <v>4</v>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" s="4">
+        <v>43.107831827638087</v>
       </c>
       <c r="E150" s="4">
-        <v>43.107831827638087</v>
-      </c>
-      <c r="F150" s="4">
         <v>0.1057009207612184</v>
       </c>
-      <c r="G150" t="s">
+      <c r="F150" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>252</v>
       </c>
       <c r="B151" t="s">
         <v>80</v>
       </c>
-      <c r="C151" s="1">
-        <v>56910</v>
-      </c>
-      <c r="D151" t="s">
-        <v>4</v>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" s="4">
+        <v>45.964820946483371</v>
       </c>
       <c r="E151" s="4">
-        <v>45.964820946483371</v>
-      </c>
-      <c r="F151" s="4">
         <v>-0.59453037827162258</v>
       </c>
-      <c r="G151" t="s">
+      <c r="F151" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>253</v>
       </c>
       <c r="B152" t="s">
         <v>80</v>
       </c>
-      <c r="C152" s="1">
-        <v>35120</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="C152" t="s">
         <v>3</v>
       </c>
+      <c r="D152" s="4">
+        <v>43.665657874960878</v>
+      </c>
       <c r="E152" s="4">
-        <v>43.665657874960878</v>
-      </c>
-      <c r="F152" s="4">
         <v>1.4523873123435811</v>
       </c>
-      <c r="G152" t="s">
+      <c r="F152" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>254</v>
       </c>
       <c r="B153" t="s">
         <v>42</v>
       </c>
-      <c r="C153" s="1">
-        <v>97200</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="C153" t="s">
         <v>3</v>
       </c>
+      <c r="D153" s="4">
+        <v>44.489956578430373</v>
+      </c>
       <c r="E153" s="4">
-        <v>44.489956578430373</v>
-      </c>
-      <c r="F153" s="4">
         <v>-0.27859558310000992</v>
       </c>
-      <c r="G153" t="s">
+      <c r="F153" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>255</v>
       </c>
       <c r="B154" t="s">
         <v>80</v>
       </c>
-      <c r="C154" s="1">
-        <v>22810</v>
-      </c>
-      <c r="D154" t="s">
-        <v>4</v>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" s="4">
+        <v>45.644182127505992</v>
       </c>
       <c r="E154" s="4">
-        <v>45.644182127505992</v>
-      </c>
-      <c r="F154" s="4">
         <v>0.45501748979546119</v>
       </c>
-      <c r="G154" t="s">
+      <c r="F154" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>256</v>
       </c>
       <c r="B155" t="s">
         <v>79</v>
       </c>
-      <c r="C155" s="1">
-        <v>80140</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="C155" t="s">
         <v>280</v>
       </c>
+      <c r="D155" s="4">
+        <v>45.46887167119116</v>
+      </c>
       <c r="E155" s="4">
-        <v>45.46887167119116</v>
-      </c>
-      <c r="F155" s="4">
         <v>2.3121413668560948</v>
       </c>
-      <c r="G155" t="s">
+      <c r="F155" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>257</v>
       </c>
       <c r="B156" t="s">
         <v>80</v>
       </c>
-      <c r="C156" s="1">
-        <v>22310</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="C156" t="s">
         <v>2</v>
       </c>
+      <c r="D156" s="4">
+        <v>43.682220989135253</v>
+      </c>
       <c r="E156" s="4">
-        <v>43.682220989135253</v>
-      </c>
-      <c r="F156" s="4">
         <v>1.476490898404518</v>
       </c>
-      <c r="G156" t="s">
+      <c r="F156" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>258</v>
       </c>
       <c r="B157" t="s">
         <v>79</v>
       </c>
-      <c r="C157" s="1">
-        <v>80360</v>
-      </c>
-      <c r="D157" t="s">
-        <v>4</v>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" s="4">
+        <v>46.263019956271577</v>
       </c>
       <c r="E157" s="4">
-        <v>46.263019956271577</v>
-      </c>
-      <c r="F157" s="4">
         <v>-1.170535737356692</v>
       </c>
-      <c r="G157" t="s">
+      <c r="F157" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>259</v>
       </c>
       <c r="B158" t="s">
         <v>79</v>
       </c>
-      <c r="C158" s="1">
-        <v>80370</v>
-      </c>
-      <c r="D158" t="s">
-        <v>4</v>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" s="4">
+        <v>45.991775264559507</v>
       </c>
       <c r="E158" s="4">
-        <v>45.991775264559507</v>
-      </c>
-      <c r="F158" s="4">
         <v>2.3134279072226609</v>
       </c>
-      <c r="G158" t="s">
+      <c r="F158" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>260</v>
       </c>
       <c r="B159" t="s">
         <v>51</v>
       </c>
-      <c r="C159" s="1">
-        <v>97223</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="C159" t="s">
         <v>3</v>
       </c>
+      <c r="D159" s="4">
+        <v>44.558633885623927</v>
+      </c>
       <c r="E159" s="4">
-        <v>44.558633885623927</v>
-      </c>
-      <c r="F159" s="4">
         <v>-0.16973508146966709</v>
       </c>
-      <c r="G159" t="s">
+      <c r="F159" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>261</v>
       </c>
       <c r="B160" t="s">
         <v>79</v>
       </c>
-      <c r="C160" s="1">
-        <v>60140</v>
-      </c>
-      <c r="D160" t="s">
-        <v>4</v>
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="4">
+        <v>45.602502784222693</v>
       </c>
       <c r="E160" s="4">
-        <v>45.602502784222693</v>
-      </c>
-      <c r="F160" s="4">
         <v>-1.094494550584924</v>
       </c>
-      <c r="G160" t="s">
+      <c r="F160" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>262</v>
       </c>
       <c r="B161" t="s">
         <v>79</v>
       </c>
-      <c r="C161" s="1">
-        <v>80360</v>
-      </c>
-      <c r="D161" t="s">
-        <v>4</v>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" s="4">
+        <v>46.062691121596472</v>
       </c>
       <c r="E161" s="4">
-        <v>46.062691121596472</v>
-      </c>
-      <c r="F161" s="4">
         <v>-1.084663602957475</v>
       </c>
-      <c r="G161" t="s">
+      <c r="F161" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>263</v>
       </c>
       <c r="B162" t="s">
         <v>80</v>
       </c>
-      <c r="C162" s="1">
-        <v>35000</v>
-      </c>
-      <c r="D162" t="s">
+      <c r="C162" t="s">
         <v>3</v>
       </c>
+      <c r="D162" s="4">
+        <v>44.907491390261967</v>
+      </c>
       <c r="E162" s="4">
-        <v>44.907491390261967</v>
-      </c>
-      <c r="F162" s="4">
         <v>-0.55015397028539392</v>
       </c>
-      <c r="G162" t="s">
+      <c r="F162" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>264</v>
       </c>
       <c r="B163" t="s">
         <v>51</v>
       </c>
-      <c r="C163" s="1">
-        <v>97224</v>
-      </c>
-      <c r="D163" t="s">
-        <v>4</v>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" s="4">
+        <v>44.506046757227487</v>
       </c>
       <c r="E163" s="4">
-        <v>44.506046757227487</v>
-      </c>
-      <c r="F163" s="4">
         <v>1.1055798873443179</v>
       </c>
-      <c r="G163" t="s">
+      <c r="F163" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>265</v>
       </c>
       <c r="B164" t="s">
         <v>35</v>
       </c>
-      <c r="C164" s="1">
-        <v>97224</v>
-      </c>
-      <c r="D164" t="s">
-        <v>4</v>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" s="4">
+        <v>44.466332790679971</v>
       </c>
       <c r="E164" s="4">
-        <v>44.466332790679971</v>
-      </c>
-      <c r="F164" s="4">
         <v>1.122363064965809</v>
       </c>
-      <c r="G164" t="s">
+      <c r="F164" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>266</v>
       </c>
       <c r="B165" t="s">
         <v>33</v>
       </c>
-      <c r="C165" s="1">
-        <v>97139</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="C165" t="s">
         <v>278</v>
       </c>
+      <c r="D165" s="4">
+        <v>44.692459385153597</v>
+      </c>
       <c r="E165" s="4">
-        <v>44.692459385153597</v>
-      </c>
-      <c r="F165" s="4">
         <v>0.53287681859794334</v>
       </c>
-      <c r="G165" t="s">
+      <c r="F165" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>267</v>
       </c>
       <c r="B166" t="s">
         <v>80</v>
       </c>
-      <c r="C166" s="1">
-        <v>56320</v>
-      </c>
-      <c r="D166" t="s">
-        <v>4</v>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" s="4">
+        <v>46.428139087606162</v>
       </c>
       <c r="E166" s="4">
-        <v>46.428139087606162</v>
-      </c>
-      <c r="F166" s="4">
         <v>-0.13212817370598781</v>
       </c>
-      <c r="G166" t="s">
+      <c r="F166" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>268</v>
       </c>
       <c r="B167" t="s">
         <v>51</v>
       </c>
-      <c r="C167" s="1">
-        <v>97221</v>
-      </c>
-      <c r="D167" t="s">
-        <v>4</v>
+      <c r="C167" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167" s="4">
+        <v>44.717172914675508</v>
       </c>
       <c r="E167" s="4">
-        <v>44.717172914675508</v>
-      </c>
-      <c r="F167" s="4">
         <v>1.3177722222762991</v>
       </c>
-      <c r="G167" t="s">
+      <c r="F167" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>269</v>
       </c>
       <c r="B168" t="s">
         <v>65</v>
       </c>
-      <c r="C168" s="1">
-        <v>97224</v>
-      </c>
-      <c r="D168" t="s">
-        <v>4</v>
+      <c r="C168" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" s="4">
+        <v>44.492148376390517</v>
       </c>
       <c r="E168" s="4">
-        <v>44.492148376390517</v>
-      </c>
-      <c r="F168" s="4">
         <v>1.282761966977366</v>
       </c>
-      <c r="G168" t="s">
+      <c r="F168" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>270</v>
       </c>
       <c r="B169" t="s">
         <v>49</v>
       </c>
-      <c r="C169" s="1">
-        <v>97224</v>
-      </c>
-      <c r="D169" t="s">
+      <c r="C169" t="s">
         <v>276</v>
       </c>
+      <c r="D169" s="4">
+        <v>43.879594038000022</v>
+      </c>
       <c r="E169" s="4">
-        <v>43.879594038000022</v>
-      </c>
-      <c r="F169" s="4">
         <v>-0.97244682087775003</v>
       </c>
-      <c r="G169" t="s">
+      <c r="F169" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>271</v>
       </c>
       <c r="B170" t="s">
         <v>80</v>
       </c>
-      <c r="C170" s="1">
-        <v>29410</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="C170" t="s">
         <v>280</v>
       </c>
+      <c r="D170" s="4">
+        <v>47.102914739210981</v>
+      </c>
       <c r="E170" s="4">
-        <v>47.102914739210981</v>
-      </c>
-      <c r="F170" s="4">
         <v>-0.1819004205564155</v>
       </c>
-      <c r="G170" t="s">
+      <c r="F170" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>272</v>
       </c>
       <c r="B171" t="s">
         <v>31</v>
       </c>
-      <c r="C171" s="1">
-        <v>97122</v>
-      </c>
-      <c r="D171" t="s">
-        <v>4</v>
+      <c r="C171" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" s="4">
+        <v>44.129088477902741</v>
       </c>
       <c r="E171" s="4">
-        <v>44.129088477902741</v>
-      </c>
-      <c r="F171" s="4">
         <v>0.46163066982189122</v>
       </c>
-      <c r="G171" t="s">
+      <c r="F171" t="s">
         <v>1288</v>
       </c>
     </row>
@@ -9029,8 +8512,8 @@
   </sheetPr>
   <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9059,13 +8542,13 @@
       <c r="D1" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="13" t="s">
@@ -40109,148 +39592,148 @@
       <c r="B1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>1289</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>16</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>1290</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>1291</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>0.75</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>5</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>20</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>3</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>5</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>1296</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>60</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>30</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>1283</v>
       </c>
-      <c r="B12" s="21">
-        <v>1</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="20">
+        <v>1</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>1284</v>
       </c>
-      <c r="B13" s="21">
-        <v>1</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="20">
+        <v>1</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="25"/>
+      <c r="C20" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40265,7 +39748,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -40284,26 +39767,26 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="19">
+      <c r="A4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="18">
         <v>45</v>
       </c>
     </row>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{5D3E3769-C4F2-4F21-A8EE-009FFA7E5B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB9582B7-2F59-4CA6-816A-3CA8E22E9496}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{5D3E3769-C4F2-4F21-A8EE-009FFA7E5B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5796E96E-8EDE-419D-A152-CF7914334FD7}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="876" windowWidth="14760" windowHeight="11028" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WORKER" sheetId="1" r:id="rId1"/>
@@ -8512,7 +8512,7 @@
   </sheetPr>
   <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -39574,8 +39574,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39682,7 +39682,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>1296</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{5D3E3769-C4F2-4F21-A8EE-009FFA7E5B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5796E96E-8EDE-419D-A152-CF7914334FD7}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{5D3E3769-C4F2-4F21-A8EE-009FFA7E5B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D18909B2-AD03-4558-BEC8-76831F5DAC10}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WORKER" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3787" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3787" uniqueCount="1298">
   <si>
     <t>Skill</t>
   </si>
@@ -3923,12 +3923,6 @@
     <t>0 -&gt; Prioridade máxima para as Atividades com marcação, 1 -&gt; Nenhuma prioridade para as Ativiades com marcação,  &gt;1 -&gt; prioridade para as Atividades sem marcação</t>
   </si>
   <si>
-    <t>7:00;11:00,11:50;15:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:00;11:00,11:50;15:00 </t>
-  </si>
-  <si>
     <t>preço em euros de 1 litro de combustivel</t>
   </si>
   <si>
@@ -3957,6 +3951,9 @@
   </si>
   <si>
     <t>quantidade de minutos que o trabalhador pode começar a trabalhar antes da hora do agendamento da atividade.</t>
+  </si>
+  <si>
+    <t>7:30;11:30,12:30;16:00</t>
   </si>
 </sst>
 </file>
@@ -4065,7 +4062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4111,12 +4108,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4133,6 +4124,18 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5067,8 +5070,8 @@
   </sheetPr>
   <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="M171" sqref="M171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5116,7 +5119,7 @@
         <v>-0.21034809587029771</v>
       </c>
       <c r="F2" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5136,7 +5139,7 @@
         <v>0.21340461754543771</v>
       </c>
       <c r="F3" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5156,7 +5159,7 @@
         <v>-0.69093368608216776</v>
       </c>
       <c r="F4" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5176,7 +5179,7 @@
         <v>1.88522061096028</v>
       </c>
       <c r="F5" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5196,7 +5199,7 @@
         <v>-0.94684504983751794</v>
       </c>
       <c r="F6" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5216,7 +5219,7 @@
         <v>2.1033318076309251</v>
       </c>
       <c r="F7" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5236,7 +5239,7 @@
         <v>1.2834175195343149</v>
       </c>
       <c r="F8" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5256,7 +5259,7 @@
         <v>2.193465678043514</v>
       </c>
       <c r="F9" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5276,7 +5279,7 @@
         <v>1.270543369033752</v>
       </c>
       <c r="F10" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5296,7 +5299,7 @@
         <v>0.20094818564177361</v>
       </c>
       <c r="F11" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5316,7 +5319,7 @@
         <v>2.157340166863507</v>
       </c>
       <c r="F12" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5336,7 +5339,7 @@
         <v>-0.98409312743015775</v>
       </c>
       <c r="F13" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5356,7 +5359,7 @@
         <v>0.3990940484614669</v>
       </c>
       <c r="F14" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5376,7 +5379,7 @@
         <v>-0.8237415692890574</v>
       </c>
       <c r="F15" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5396,7 +5399,7 @@
         <v>2.1912123306928688</v>
       </c>
       <c r="F16" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5416,7 +5419,7 @@
         <v>1.272672897956832</v>
       </c>
       <c r="F17" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5436,7 +5439,7 @@
         <v>1.462113963892117</v>
       </c>
       <c r="F18" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5456,7 +5459,7 @@
         <v>1.3937086457565691</v>
       </c>
       <c r="F19" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5476,7 +5479,7 @@
         <v>1.4691083539895939</v>
       </c>
       <c r="F20" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5496,7 +5499,7 @@
         <v>-0.59365972661840649</v>
       </c>
       <c r="F21" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5516,7 +5519,7 @@
         <v>-1.3071990698184011</v>
       </c>
       <c r="F22" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5536,7 +5539,7 @@
         <v>-1.0086991725762451</v>
       </c>
       <c r="F23" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5556,7 +5559,7 @@
         <v>2.2396154215294062</v>
       </c>
       <c r="F24" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5576,7 +5579,7 @@
         <v>2.589887756585469</v>
       </c>
       <c r="F25" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5596,7 +5599,7 @@
         <v>1.6794275396983549</v>
       </c>
       <c r="F26" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5616,7 +5619,7 @@
         <v>-8.9672193728331157E-2</v>
       </c>
       <c r="F27" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5636,7 +5639,7 @@
         <v>1.641678375629007</v>
       </c>
       <c r="F28" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5656,7 +5659,7 @@
         <v>1.7813609104396271</v>
       </c>
       <c r="F29" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5676,7 +5679,7 @@
         <v>1.5726398188409341</v>
       </c>
       <c r="F30" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5696,7 +5699,7 @@
         <v>2.7568631362538079</v>
       </c>
       <c r="F31" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5716,7 +5719,7 @@
         <v>1.2069623371025711</v>
       </c>
       <c r="F32" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5736,7 +5739,7 @@
         <v>1.343604267603149</v>
       </c>
       <c r="F33" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5756,7 +5759,7 @@
         <v>1.3021592866685019</v>
       </c>
       <c r="F34" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5776,7 +5779,7 @@
         <v>1.4067061260196581</v>
       </c>
       <c r="F35" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5796,7 +5799,7 @@
         <v>-0.23469717566457349</v>
       </c>
       <c r="F36" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5816,7 +5819,7 @@
         <v>1.335996211363671</v>
       </c>
       <c r="F37" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5836,7 +5839,7 @@
         <v>-1.0583993045393929</v>
       </c>
       <c r="F38" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5856,7 +5859,7 @@
         <v>2.1927550318550639</v>
       </c>
       <c r="F39" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5876,7 +5879,7 @@
         <v>-0.6982297350426141</v>
       </c>
       <c r="F40" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5896,7 +5899,7 @@
         <v>1.4155239243447491</v>
       </c>
       <c r="F41" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5916,7 +5919,7 @@
         <v>-0.85664155127427444</v>
       </c>
       <c r="F42" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5936,7 +5939,7 @@
         <v>1.277111195570644</v>
       </c>
       <c r="F43" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5956,7 +5959,7 @@
         <v>-0.48709525916613788</v>
       </c>
       <c r="F44" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5976,7 +5979,7 @@
         <v>-0.32589958337379338</v>
       </c>
       <c r="F45" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5996,7 +5999,7 @@
         <v>2.5086490936295092</v>
       </c>
       <c r="F46" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6016,7 +6019,7 @@
         <v>1.3681353253161681</v>
       </c>
       <c r="F47" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6036,7 +6039,7 @@
         <v>-9.8775599042808471E-2</v>
       </c>
       <c r="F48" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6056,7 +6059,7 @@
         <v>1.327118219976664</v>
       </c>
       <c r="F49" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6076,7 +6079,7 @@
         <v>1.2200670358140471</v>
       </c>
       <c r="F50" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6096,7 +6099,7 @@
         <v>-0.25075196884130863</v>
       </c>
       <c r="F51" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6116,7 +6119,7 @@
         <v>-0.42757460198491609</v>
       </c>
       <c r="F52" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6136,7 +6139,7 @@
         <v>2.258223357858181</v>
       </c>
       <c r="F53" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6156,7 +6159,7 @@
         <v>-1.0701318832816289</v>
       </c>
       <c r="F54" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6176,7 +6179,7 @@
         <v>1.247240373732994</v>
       </c>
       <c r="F55" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6196,7 +6199,7 @@
         <v>-0.15674583306753689</v>
       </c>
       <c r="F56" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6216,7 +6219,7 @@
         <v>-0.32493444924537263</v>
       </c>
       <c r="F57" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6236,7 +6239,7 @@
         <v>1.489236925992679</v>
       </c>
       <c r="F58" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6256,7 +6259,7 @@
         <v>3.4847748824814603E-2</v>
       </c>
       <c r="F59" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6276,7 +6279,7 @@
         <v>2.0605087666726698</v>
       </c>
       <c r="F60" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6296,7 +6299,7 @@
         <v>2.619535123864758</v>
       </c>
       <c r="F61" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6316,7 +6319,7 @@
         <v>1.458688329882956</v>
       </c>
       <c r="F62" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6336,7 +6339,7 @@
         <v>2.133719345030769</v>
       </c>
       <c r="F63" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6356,7 +6359,7 @@
         <v>0.51904416027984435</v>
       </c>
       <c r="F64" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6376,7 +6379,7 @@
         <v>1.36666097500424</v>
       </c>
       <c r="F65" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6396,7 +6399,7 @@
         <v>-1.5018684916647911</v>
       </c>
       <c r="F66" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6416,7 +6419,7 @@
         <v>-0.16829025664533201</v>
       </c>
       <c r="F67" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6436,7 +6439,7 @@
         <v>1.81143349409623</v>
       </c>
       <c r="F68" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6456,7 +6459,7 @@
         <v>0.35821490577630122</v>
       </c>
       <c r="F69" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6476,7 +6479,7 @@
         <v>1.3055462494941481</v>
       </c>
       <c r="F70" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6496,7 +6499,7 @@
         <v>2.0114491418412861</v>
       </c>
       <c r="F71" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6516,7 +6519,7 @@
         <v>1.4271835218257971</v>
       </c>
       <c r="F72" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6536,7 +6539,7 @@
         <v>1.6833237640940759</v>
       </c>
       <c r="F73" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6556,7 +6559,7 @@
         <v>1.0436887227547931</v>
       </c>
       <c r="F74" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6576,7 +6579,7 @@
         <v>2.037814616865242</v>
       </c>
       <c r="F75" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6596,7 +6599,7 @@
         <v>1.791781899508069</v>
       </c>
       <c r="F76" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6616,7 +6619,7 @@
         <v>1.938529913542399</v>
       </c>
       <c r="F77" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6636,7 +6639,7 @@
         <v>1.5619091447699751</v>
       </c>
       <c r="F78" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6656,7 +6659,7 @@
         <v>1.6989640281507099</v>
       </c>
       <c r="F79" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6676,7 +6679,7 @@
         <v>-1.0810702973637909</v>
       </c>
       <c r="F80" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6696,7 +6699,7 @@
         <v>-0.4775894473437714</v>
       </c>
       <c r="F81" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6716,7 +6719,7 @@
         <v>8.7862241011261943E-2</v>
       </c>
       <c r="F82" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6736,7 +6739,7 @@
         <v>2.3861265321346008</v>
       </c>
       <c r="F83" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6756,7 +6759,7 @@
         <v>2.6368144178775839</v>
       </c>
       <c r="F84" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6776,7 +6779,7 @@
         <v>-0.32815625743931948</v>
       </c>
       <c r="F85" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6796,7 +6799,7 @@
         <v>0.53421427217025341</v>
       </c>
       <c r="F86" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6816,7 +6819,7 @@
         <v>0.87223412066404948</v>
       </c>
       <c r="F87" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6836,7 +6839,7 @@
         <v>-0.58624293330177013</v>
       </c>
       <c r="F88" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6856,7 +6859,7 @@
         <v>-1.191277663423489</v>
       </c>
       <c r="F89" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6876,7 +6879,7 @@
         <v>-0.28879121821512449</v>
       </c>
       <c r="F90" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6896,7 +6899,7 @@
         <v>1.141700999669965</v>
       </c>
       <c r="F91" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6916,7 +6919,7 @@
         <v>1.4597250705289491</v>
       </c>
       <c r="F92" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6936,7 +6939,7 @@
         <v>1.3882260276152789</v>
       </c>
       <c r="F93" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6956,7 +6959,7 @@
         <v>1.4641987512971451</v>
       </c>
       <c r="F94" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6976,7 +6979,7 @@
         <v>2.9896469677016451</v>
       </c>
       <c r="F95" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6996,7 +6999,7 @@
         <v>0.23695170074281829</v>
       </c>
       <c r="F96" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7016,7 +7019,7 @@
         <v>1.427007206473045</v>
       </c>
       <c r="F97" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7036,7 +7039,7 @@
         <v>-0.7510696971327625</v>
       </c>
       <c r="F98" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7056,7 +7059,7 @@
         <v>-1.1669374609046179</v>
       </c>
       <c r="F99" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7076,7 +7079,7 @@
         <v>1.444293384528492</v>
       </c>
       <c r="F100" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7096,7 +7099,7 @@
         <v>1.4742650312607619</v>
       </c>
       <c r="F101" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7116,7 +7119,7 @@
         <v>1.2919649426316191</v>
       </c>
       <c r="F102" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7136,7 +7139,7 @@
         <v>1.3288258479504409</v>
       </c>
       <c r="F103" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7156,7 +7159,7 @@
         <v>1.43631176914862</v>
       </c>
       <c r="F104" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7176,7 +7179,7 @@
         <v>2.2220129767655861</v>
       </c>
       <c r="F105" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7196,7 +7199,7 @@
         <v>1.30334232159937</v>
       </c>
       <c r="F106" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7216,7 +7219,7 @@
         <v>-1.1288177886531201</v>
       </c>
       <c r="F107" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7236,7 +7239,7 @@
         <v>2.6753727175410429</v>
       </c>
       <c r="F108" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7256,7 +7259,7 @@
         <v>1.3098066210210739</v>
       </c>
       <c r="F109" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7276,7 +7279,7 @@
         <v>0.47749228379874648</v>
       </c>
       <c r="F110" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7296,7 +7299,7 @@
         <v>1.324417661259879</v>
       </c>
       <c r="F111" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7316,7 +7319,7 @@
         <v>0.39855884201124703</v>
       </c>
       <c r="F112" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7336,7 +7339,7 @@
         <v>-1.4958648630737159</v>
       </c>
       <c r="F113" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7356,7 +7359,7 @@
         <v>-0.74856244926560922</v>
       </c>
       <c r="F114" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7376,7 +7379,7 @@
         <v>-0.46749593718520932</v>
       </c>
       <c r="F115" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7396,7 +7399,7 @@
         <v>1.949769284829578</v>
       </c>
       <c r="F116" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7416,7 +7419,7 @@
         <v>-0.39830786185247857</v>
       </c>
       <c r="F117" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7436,7 +7439,7 @@
         <v>1.4060771641040219</v>
       </c>
       <c r="F118" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7456,7 +7459,7 @@
         <v>-0.40636201242220649</v>
       </c>
       <c r="F119" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7476,7 +7479,7 @@
         <v>1.451151457999492</v>
       </c>
       <c r="F120" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7496,7 +7499,7 @@
         <v>1.374920883748052</v>
       </c>
       <c r="F121" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7516,7 +7519,7 @@
         <v>-1.351230140078868</v>
       </c>
       <c r="F122" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7536,7 +7539,7 @@
         <v>1.244120185807821</v>
       </c>
       <c r="F123" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7556,7 +7559,7 @@
         <v>-1.486633608157186</v>
       </c>
       <c r="F124" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7576,7 +7579,7 @@
         <v>1.460082880064552</v>
       </c>
       <c r="F125" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7596,7 +7599,7 @@
         <v>-0.45808832891586221</v>
       </c>
       <c r="F126" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7616,7 +7619,7 @@
         <v>-0.91665835385084316</v>
       </c>
       <c r="F127" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7636,7 +7639,7 @@
         <v>1.2084151437018349</v>
       </c>
       <c r="F128" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7656,7 +7659,7 @@
         <v>1.699694453686952</v>
       </c>
       <c r="F129" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7676,7 +7679,7 @@
         <v>0.5430174456270308</v>
       </c>
       <c r="F130" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7696,7 +7699,7 @@
         <v>1.4804460071370109</v>
       </c>
       <c r="F131" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7716,7 +7719,7 @@
         <v>0.74984765955367949</v>
       </c>
       <c r="F132" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7736,7 +7739,7 @@
         <v>1.4402319518284239</v>
       </c>
       <c r="F133" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7756,7 +7759,7 @@
         <v>2.962146738329682</v>
       </c>
       <c r="F134" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7776,7 +7779,7 @@
         <v>1.5646920764597889</v>
       </c>
       <c r="F135" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7796,7 +7799,7 @@
         <v>-0.29323050702895898</v>
       </c>
       <c r="F136" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7816,7 +7819,7 @@
         <v>-1.088389368219238</v>
       </c>
       <c r="F137" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7836,7 +7839,7 @@
         <v>-1.4007586445954761</v>
       </c>
       <c r="F138" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7856,7 +7859,7 @@
         <v>-1.3081594724558001</v>
       </c>
       <c r="F139" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7876,7 +7879,7 @@
         <v>1.46536217660358</v>
       </c>
       <c r="F140" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7896,7 +7899,7 @@
         <v>1.7127569680681161</v>
       </c>
       <c r="F141" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7916,7 +7919,7 @@
         <v>0.1042200271443931</v>
       </c>
       <c r="F142" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7936,7 +7939,7 @@
         <v>1.1163769971579489</v>
       </c>
       <c r="F143" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7956,7 +7959,7 @@
         <v>2.236332350267817</v>
       </c>
       <c r="F144" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7976,7 +7979,7 @@
         <v>1.45399402875325</v>
       </c>
       <c r="F145" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7996,7 +7999,7 @@
         <v>1.303167238655301</v>
       </c>
       <c r="F146" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8016,7 +8019,7 @@
         <v>-0.68733283191230543</v>
       </c>
       <c r="F147" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8036,7 +8039,7 @@
         <v>1.4895928516349179</v>
       </c>
       <c r="F148" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8056,7 +8059,7 @@
         <v>1.527299343925842</v>
       </c>
       <c r="F149" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8076,7 +8079,7 @@
         <v>0.1057009207612184</v>
       </c>
       <c r="F150" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8096,7 +8099,7 @@
         <v>-0.59453037827162258</v>
       </c>
       <c r="F151" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8116,7 +8119,7 @@
         <v>1.4523873123435811</v>
       </c>
       <c r="F152" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8136,7 +8139,7 @@
         <v>-0.27859558310000992</v>
       </c>
       <c r="F153" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8156,7 +8159,7 @@
         <v>0.45501748979546119</v>
       </c>
       <c r="F154" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8176,7 +8179,7 @@
         <v>2.3121413668560948</v>
       </c>
       <c r="F155" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8196,7 +8199,7 @@
         <v>1.476490898404518</v>
       </c>
       <c r="F156" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8216,7 +8219,7 @@
         <v>-1.170535737356692</v>
       </c>
       <c r="F157" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8236,7 +8239,7 @@
         <v>2.3134279072226609</v>
       </c>
       <c r="F158" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8256,7 +8259,7 @@
         <v>-0.16973508146966709</v>
       </c>
       <c r="F159" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8276,7 +8279,7 @@
         <v>-1.094494550584924</v>
       </c>
       <c r="F160" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8296,7 +8299,7 @@
         <v>-1.084663602957475</v>
       </c>
       <c r="F161" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8316,7 +8319,7 @@
         <v>-0.55015397028539392</v>
       </c>
       <c r="F162" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8336,7 +8339,7 @@
         <v>1.1055798873443179</v>
       </c>
       <c r="F163" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8356,7 +8359,7 @@
         <v>1.122363064965809</v>
       </c>
       <c r="F164" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8376,7 +8379,7 @@
         <v>0.53287681859794334</v>
       </c>
       <c r="F165" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8396,7 +8399,7 @@
         <v>-0.13212817370598781</v>
       </c>
       <c r="F166" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8416,7 +8419,7 @@
         <v>1.3177722222762991</v>
       </c>
       <c r="F167" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8436,7 +8439,7 @@
         <v>1.282761966977366</v>
       </c>
       <c r="F168" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8456,7 +8459,7 @@
         <v>-0.97244682087775003</v>
       </c>
       <c r="F169" t="s">
-        <v>1287</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8476,7 +8479,7 @@
         <v>-0.1819004205564155</v>
       </c>
       <c r="F170" t="s">
-        <v>1288</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8496,7 +8499,7 @@
         <v>0.46163066982189122</v>
       </c>
       <c r="F171" t="s">
-        <v>1288</v>
+        <v>1297</v>
       </c>
     </row>
   </sheetData>
@@ -39574,14 +39577,14 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="96.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -39589,135 +39592,135 @@
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="26">
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D2" s="26"/>
+      <c r="C2" s="20" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="26">
         <v>16</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>1290</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="C3" s="20" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="26">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="C4" s="20" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="26">
         <v>0.75</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>1292</v>
+      <c r="C5" s="20" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="26">
         <v>5</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>1294</v>
+      <c r="C6" s="20" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="26">
         <v>20</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>1293</v>
+      <c r="C7" s="20" t="s">
+        <v>1291</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="26">
         <v>3</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>1295</v>
+      <c r="C8" s="20" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="18">
-        <v>1</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>1296</v>
+      <c r="B9" s="26">
+        <v>3</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="26">
         <v>60</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>1297</v>
+      <c r="C10" s="21" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="26">
         <v>30</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>1298</v>
+      <c r="C11" s="21" t="s">
+        <v>1296</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>1283</v>
       </c>
-      <c r="B12" s="20">
-        <v>1</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="27">
+        <v>1</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>1286</v>
       </c>
     </row>
@@ -39725,15 +39728,15 @@
       <c r="A13" s="17" t="s">
         <v>1284</v>
       </c>
-      <c r="B13" s="20">
-        <v>1</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="27">
+        <v>1</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="24"/>
+      <c r="C20" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgac0\OneDrive - ESTGV\3 ano\2 semestre\ProjetoFinal\ProjetoFinal3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F50A59-38BD-4FC1-89F5-81C172E7B1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B8F50A59-38BD-4FC1-89F5-81C172E7B1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20F9D019-0BF9-438F-BA8A-8D7E57F49D7F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39456,7 +39456,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39531,7 +39531,7 @@
         <v>1295</v>
       </c>
       <c r="B6" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>15</v>
@@ -39553,7 +39553,7 @@
         <v>1297</v>
       </c>
       <c r="B8" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>17</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E1D514F1-5577-4C72-ABE2-A504A65AF121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5579A8EC-C40D-45A4-BB2A-F4A1229E6303}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E1D514F1-5577-4C72-ABE2-A504A65AF121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1FF86BD-BD6E-4BE4-9C23-7F856536F1A2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4131,6 +4131,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39456,14 +39460,14 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="137.33203125" style="11" customWidth="1"/>
     <col min="4" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -39531,7 +39535,7 @@
         <v>1295</v>
       </c>
       <c r="B6" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>15</v>
@@ -39542,7 +39546,7 @@
         <v>1296</v>
       </c>
       <c r="B7" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>16</v>
@@ -39564,7 +39568,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>19</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_DE8FE7C740A12F1989494C177EFFF2250D6B9552" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_DE8FE7C740A12F1989494C177EFFF2250D6B9552" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC7BEA4E-772E-43B5-8593-4CC0C6B374EA}"/>
   <bookViews>
-    <workbookView xWindow="2172" yWindow="0" windowWidth="19548" windowHeight="12240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WORKER" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="1279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="1277">
   <si>
     <t>Skill</t>
   </si>
@@ -3868,12 +3868,6 @@
   </si>
   <si>
     <t>Worker-170</t>
-  </si>
-  <si>
-    <t>idCentral</t>
-  </si>
-  <si>
-    <t>codPostal</t>
   </si>
 </sst>
 </file>
@@ -4182,6 +4176,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4502,7 +4500,9 @@
   </sheetPr>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4518,25 +4518,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1097</v>
       </c>
+      <c r="D1" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="E1" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>1098</v>
       </c>
     </row>
@@ -4547,19 +4544,16 @@
       <c r="B2" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="32">
-        <v>97240</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="33">
+        <v>43.974274567555838</v>
       </c>
       <c r="E2" s="33">
-        <v>43.974274567555838</v>
-      </c>
-      <c r="F2" s="33">
         <v>-0.4775894473437714</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>1100</v>
       </c>
     </row>
@@ -4589,7 +4583,9 @@
   </sheetPr>
   <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8031,7 +8027,7 @@
   </sheetPr>
   <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -39093,7 +39089,9 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -39222,7 +39220,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>26</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_DE8FE7C740A12F1989494C177EFFF2250D6B9552" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC7BEA4E-772E-43B5-8593-4CC0C6B374EA}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_DE8FE7C740A12F1989494C177EFFF2250D6B9552" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{860A68D7-AE73-46A1-B2CE-D52624202153}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4176,10 +4176,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39090,7 +39086,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39198,7 +39194,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>22</v>
@@ -39209,7 +39205,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>24</v>
@@ -39220,7 +39216,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>26</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_DE8FE7C740A12F1989494C177EFFF2250D6B9552" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{860A68D7-AE73-46A1-B2CE-D52624202153}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_DE8FE7C740A12F1989494C177EFFF2250D6B9552" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3B05718-6017-4982-8256-2A0DDAB619C8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4176,6 +4176,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39086,7 +39090,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39161,7 +39165,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="13">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>16</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_DE8FE7C740A12F1989494C177EFFF2250D6B9552" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3B05718-6017-4982-8256-2A0DDAB619C8}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_DE8FE7C740A12F1989494C177EFFF2250D6B9552" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{119D5F6A-882A-461B-A450-2EBAA5ED8E78}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39090,7 +39090,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_DE8FE7C740A12F1989494C177EFFF2250D6B9552" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{860A68D7-AE73-46A1-B2CE-D52624202153}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_DE8FE7C740A12F1989494C177EFFF2250D6B9552" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63F7B38A-E0CB-4F8E-B750-6C5819CDF213}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4176,6 +4176,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39086,7 +39090,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39161,7 +39165,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="13">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>16</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_DE8FE7C740A12F1989494C177EFFF2250D6B9552" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{119D5F6A-882A-461B-A450-2EBAA5ED8E78}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_DE8FE7C740A12F1989494C177EFFF2250D6B9552" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7039C40E-6566-43E5-B55E-A0568E8C7474}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WORKER" sheetId="1" r:id="rId1"/>
-    <sheet name="WORKERS" sheetId="2" r:id="rId2"/>
-    <sheet name="ACTIVITIES" sheetId="3" r:id="rId3"/>
-    <sheet name="VALUES" sheetId="4" r:id="rId4"/>
-    <sheet name="SKILLS" sheetId="5" r:id="rId5"/>
+    <sheet name="WORKERS" sheetId="2" r:id="rId1"/>
+    <sheet name="ACTIVITIES" sheetId="3" r:id="rId2"/>
+    <sheet name="VALUES" sheetId="4" r:id="rId3"/>
+    <sheet name="SKILLS" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="1277">
   <si>
     <t>Skill</t>
   </si>
@@ -3330,9 +3329,6 @@
     <t>idTrabalhador</t>
   </si>
   <si>
-    <t>skills</t>
-  </si>
-  <si>
     <t>HorarioTrabalho</t>
   </si>
   <si>
@@ -3868,13 +3864,16 @@
   </si>
   <si>
     <t>Worker-170</t>
+  </si>
+  <si>
+    <t>Skills</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3897,6 +3896,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3929,7 +3935,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4045,6 +4051,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4153,14 +4174,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4184,7 +4207,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H1001" totalsRowShown="0">
-  <autoFilter ref="A1:H1001" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NUMINT"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Central"/>
@@ -4494,82 +4516,3445 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.5546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>1096</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="36" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="36" t="s">
         <v>1097</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="35" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="38">
+        <v>46.615953294355222</v>
+      </c>
+      <c r="E2" s="38">
+        <v>-0.21034809587029771</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D3" s="33">
+        <v>43.502648866636378</v>
+      </c>
+      <c r="E3" s="33">
+        <v>0.21340461754543771</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="33">
+        <v>44.720492306259231</v>
+      </c>
+      <c r="E4" s="33">
+        <v>-0.69093368608216776</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="33">
+        <v>43.021797942174551</v>
+      </c>
+      <c r="E5" s="33">
+        <v>1.88522061096028</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D6" s="33">
+        <v>46.14553530195343</v>
+      </c>
+      <c r="E6" s="33">
+        <v>-0.94684504983751794</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="33">
+        <v>44.006287611253462</v>
+      </c>
+      <c r="E7" s="33">
+        <v>2.1033318076309251</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D8" s="33">
+        <v>42.983082015896187</v>
+      </c>
+      <c r="E8" s="33">
+        <v>1.2834175195343149</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="33">
+        <v>43.914835515382137</v>
+      </c>
+      <c r="E9" s="33">
+        <v>2.193465678043514</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="33">
+        <v>43.391340710797209</v>
+      </c>
+      <c r="E10" s="33">
+        <v>1.270543369033752</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D11" s="33">
+        <v>45.536713091467902</v>
+      </c>
+      <c r="E11" s="33">
+        <v>0.20094818564177361</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="33">
+        <v>43.607329721601829</v>
+      </c>
+      <c r="E12" s="33">
+        <v>2.157340166863507</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D13" s="33">
+        <v>43.240985771172987</v>
+      </c>
+      <c r="E13" s="33">
+        <v>-0.98409312743015775</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="33">
+        <v>44.007154468459873</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0.3990940484614669</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="33">
+        <v>44.035551500235613</v>
+      </c>
+      <c r="E15" s="33">
+        <v>-0.8237415692890574</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="33">
+        <v>43.918344530726159</v>
+      </c>
+      <c r="E16" s="33">
+        <v>2.1912123306928688</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="33">
+        <v>43.504587615064203</v>
+      </c>
+      <c r="E17" s="33">
+        <v>1.272672897956832</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>351</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D18" s="33">
+        <v>43.523674647031847</v>
+      </c>
+      <c r="E18" s="33">
+        <v>1.462113963892117</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="33">
+        <v>43.592395522881169</v>
+      </c>
+      <c r="E19" s="33">
+        <v>1.3937086457565691</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="33">
+        <v>43.544174552113503</v>
+      </c>
+      <c r="E20" s="33">
+        <v>1.4691083539895939</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="33">
+        <v>43.865776383507743</v>
+      </c>
+      <c r="E21" s="33">
+        <v>-0.59365972661840649</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D22" s="33">
+        <v>43.640043502896717</v>
+      </c>
+      <c r="E22" s="33">
+        <v>-1.3071990698184011</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="33">
+        <v>46.020200614473268</v>
+      </c>
+      <c r="E23" s="33">
+        <v>-1.0086991725762451</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="33">
+        <v>43.398288874715213</v>
+      </c>
+      <c r="E24" s="33">
+        <v>2.2396154215294062</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="33">
+        <v>44.23639980184003</v>
+      </c>
+      <c r="E25" s="33">
+        <v>2.589887756585469</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D26" s="33">
+        <v>43.759736436219072</v>
+      </c>
+      <c r="E26" s="33">
+        <v>1.6794275396983549</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="33">
+        <v>44.031601615829352</v>
+      </c>
+      <c r="E27" s="33">
+        <v>-8.9672193728331157E-2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B28" t="s">
+        <v>351</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="33">
+        <v>43.425050360976762</v>
+      </c>
+      <c r="E28" s="33">
+        <v>1.641678375629007</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B29" t="s">
+        <v>351</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="33">
+        <v>43.675127637147497</v>
+      </c>
+      <c r="E29" s="33">
+        <v>1.7813609104396271</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="33">
+        <v>44.815039537082981</v>
+      </c>
+      <c r="E30" s="33">
+        <v>1.5726398188409341</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="33">
+        <v>43.805475473401877</v>
+      </c>
+      <c r="E31" s="33">
+        <v>2.7568631362538079</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D32" s="33">
+        <v>43.224786024890932</v>
+      </c>
+      <c r="E32" s="33">
+        <v>1.2069623371025711</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B33" t="s">
+        <v>351</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="33">
+        <v>43.688798142932271</v>
+      </c>
+      <c r="E33" s="33">
+        <v>1.343604267603149</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="33">
+        <v>44.336240087904748</v>
+      </c>
+      <c r="E34" s="33">
+        <v>1.3021592866685019</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="33">
+        <v>43.46734167595325</v>
+      </c>
+      <c r="E35" s="33">
+        <v>1.4067061260196581</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B36" t="s">
+        <v>351</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="33">
+        <v>46.191623207717917</v>
+      </c>
+      <c r="E36" s="33">
+        <v>-0.23469717566457349</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B37" t="s">
+        <v>351</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="33">
+        <v>43.661522525266427</v>
+      </c>
+      <c r="E37" s="33">
+        <v>1.335996211363671</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B38" t="s">
+        <v>668</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="33">
+        <v>45.757009149436612</v>
+      </c>
+      <c r="E38" s="33">
+        <v>-1.0583993045393929</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B39" t="s">
+        <v>351</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="33">
+        <v>43.952726814561203</v>
+      </c>
+      <c r="E39" s="33">
+        <v>2.1927550318550639</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="33">
+        <v>44.685442714855547</v>
+      </c>
+      <c r="E40" s="33">
+        <v>-0.6982297350426141</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D41" s="33">
+        <v>43.553745277247657</v>
+      </c>
+      <c r="E41" s="33">
+        <v>1.4155239243447491</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="33">
+        <v>44.101029820901992</v>
+      </c>
+      <c r="E42" s="33">
+        <v>-0.85664155127427444</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B43" t="s">
+        <v>351</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="33">
+        <v>45.203596678720778</v>
+      </c>
+      <c r="E43" s="33">
+        <v>1.277111195570644</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B44" t="s">
+        <v>351</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="33">
+        <v>45.467391863695127</v>
+      </c>
+      <c r="E44" s="33">
+        <v>-0.48709525916613788</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B45" t="s">
+        <v>351</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="33">
+        <v>43.233911777864932</v>
+      </c>
+      <c r="E45" s="33">
+        <v>-0.32589958337379338</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B46" t="s">
+        <v>334</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="33">
+        <v>44.200613387383207</v>
+      </c>
+      <c r="E46" s="33">
+        <v>2.5086490936295092</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B47" t="s">
+        <v>351</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D47" s="33">
+        <v>43.750985763181717</v>
+      </c>
+      <c r="E47" s="33">
+        <v>1.3681353253161681</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>351</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="33">
+        <v>43.339957258684898</v>
+      </c>
+      <c r="E48" s="33">
+        <v>-9.8775599042808471E-2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="33">
+        <v>44.971887020572062</v>
+      </c>
+      <c r="E49" s="33">
+        <v>1.327118219976664</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B50" t="s">
+        <v>351</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D50" s="33">
+        <v>45.273786676879652</v>
+      </c>
+      <c r="E50" s="33">
+        <v>1.2200670358140471</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="33">
+        <v>43.736633361568757</v>
+      </c>
+      <c r="E51" s="33">
+        <v>-0.25075196884130863</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B52" t="s">
+        <v>334</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="33">
+        <v>46.384416152336193</v>
+      </c>
+      <c r="E52" s="33">
+        <v>-0.42757460198491609</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B53" t="s">
+        <v>334</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D53" s="33">
+        <v>45.666012748796653</v>
+      </c>
+      <c r="E53" s="33">
+        <v>2.258223357858181</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="33">
+        <v>45.017698644186027</v>
+      </c>
+      <c r="E54" s="33">
+        <v>-1.0701318832816289</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B55" t="s">
+        <v>351</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="33">
+        <v>43.602296067990117</v>
+      </c>
+      <c r="E55" s="33">
+        <v>1.247240373732994</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="33">
+        <v>44.308696869209157</v>
+      </c>
+      <c r="E56" s="33">
+        <v>-0.15674583306753689</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B57" t="s">
+        <v>334</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="33">
+        <v>47.02516522258253</v>
+      </c>
+      <c r="E57" s="33">
+        <v>-0.32493444924537263</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B58" t="s">
+        <v>334</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="33">
+        <v>43.61743746997265</v>
+      </c>
+      <c r="E58" s="33">
+        <v>1.489236925992679</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="33">
+        <v>43.689794187100681</v>
+      </c>
+      <c r="E59" s="33">
+        <v>3.4847748824814603E-2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="33">
+        <v>44.510257661081397</v>
+      </c>
+      <c r="E60" s="33">
+        <v>2.0605087666726698</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B61" t="s">
+        <v>334</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="33">
+        <v>44.366304801706526</v>
+      </c>
+      <c r="E61" s="33">
+        <v>2.619535123864758</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B62" t="s">
+        <v>351</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="33">
+        <v>43.69895417790093</v>
+      </c>
+      <c r="E62" s="33">
+        <v>1.458688329882956</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="33">
+        <v>44.01882313274114</v>
+      </c>
+      <c r="E63" s="33">
+        <v>2.133719345030769</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="33">
+        <v>44.639864313250371</v>
+      </c>
+      <c r="E64" s="33">
+        <v>0.51904416027984435</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="33">
+        <v>43.455878222339763</v>
+      </c>
+      <c r="E65" s="33">
+        <v>1.36666097500424</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D66" s="33">
+        <v>43.546964742994831</v>
+      </c>
+      <c r="E66" s="33">
+        <v>-1.5018684916647911</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B67" t="s">
+        <v>334</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="33">
+        <v>46.348069072404257</v>
+      </c>
+      <c r="E67" s="33">
+        <v>-0.16829025664533201</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="33">
+        <v>45.317393116613573</v>
+      </c>
+      <c r="E68" s="33">
+        <v>1.81143349409623</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="33">
+        <v>45.122764763608728</v>
+      </c>
+      <c r="E69" s="33">
+        <v>0.35821490577630122</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="33">
+        <v>42.957860786326172</v>
+      </c>
+      <c r="E70" s="33">
+        <v>1.3055462494941481</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B71" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="33">
+        <v>43.988990562447412</v>
+      </c>
+      <c r="E71" s="33">
+        <v>2.0114491418412861</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B72" t="s">
+        <v>351</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="33">
+        <v>43.535828048515711</v>
+      </c>
+      <c r="E72" s="33">
+        <v>1.4271835218257971</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B73" t="s">
+        <v>334</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="33">
+        <v>43.827314741953963</v>
+      </c>
+      <c r="E73" s="33">
+        <v>1.6833237640940759</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B74" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="33">
+        <v>44.556183382297483</v>
+      </c>
+      <c r="E74" s="33">
+        <v>1.0436887227547931</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D75" s="33">
+        <v>44.615048654883438</v>
+      </c>
+      <c r="E75" s="33">
+        <v>2.037814616865242</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="33">
+        <v>45.890967140188643</v>
+      </c>
+      <c r="E76" s="33">
+        <v>1.791781899508069</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="33">
+        <v>44.524576532544437</v>
+      </c>
+      <c r="E77" s="33">
+        <v>1.938529913542399</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B78" t="s">
+        <v>351</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="33">
+        <v>43.542103115805602</v>
+      </c>
+      <c r="E78" s="33">
+        <v>1.5619091447699751</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B79" t="s">
+        <v>334</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D79" s="33">
+        <v>43.696536860470957</v>
+      </c>
+      <c r="E79" s="33">
+        <v>1.6989640281507099</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="33">
+        <v>43.731609298220903</v>
+      </c>
+      <c r="E80" s="33">
+        <v>-1.0810702973637909</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B81" t="s">
+        <v>220</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="33">
+        <v>43.974274567555838</v>
+      </c>
+      <c r="E81" s="33">
+        <v>-0.4775894473437714</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>1186</v>
       </c>
-      <c r="B2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="33">
-        <v>43.974274567555838</v>
-      </c>
-      <c r="E2" s="33">
-        <v>-0.4775894473437714</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M12" s="32"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
+      <c r="B82" t="s">
+        <v>351</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="33">
+        <v>45.617025458113922</v>
+      </c>
+      <c r="E82" s="33">
+        <v>8.7862241011261943E-2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B83" t="s">
+        <v>334</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D83" s="33">
+        <v>43.568487073397087</v>
+      </c>
+      <c r="E83" s="33">
+        <v>2.3861265321346008</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="33">
+        <v>44.334085247302298</v>
+      </c>
+      <c r="E84" s="33">
+        <v>2.6368144178775839</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B85" t="s">
+        <v>334</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="33">
+        <v>46.341495872866801</v>
+      </c>
+      <c r="E85" s="33">
+        <v>-0.32815625743931948</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="33">
+        <v>44.305333363141671</v>
+      </c>
+      <c r="E86" s="33">
+        <v>0.53421427217025341</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B87" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="33">
+        <v>44.28854430813216</v>
+      </c>
+      <c r="E87" s="33">
+        <v>0.87223412066404948</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B88" t="s">
+        <v>351</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="33">
+        <v>45.632216058427808</v>
+      </c>
+      <c r="E88" s="33">
+        <v>-0.58624293330177013</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B89" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="33">
+        <v>46.110928854298052</v>
+      </c>
+      <c r="E89" s="33">
+        <v>-1.191277663423489</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B90" t="s">
+        <v>351</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D90" s="33">
+        <v>43.388483133588601</v>
+      </c>
+      <c r="E90" s="33">
+        <v>-0.28879121821512449</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B91" t="s">
+        <v>351</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="33">
+        <v>44.68029885859459</v>
+      </c>
+      <c r="E91" s="33">
+        <v>1.141700999669965</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B92" t="s">
+        <v>351</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="33">
+        <v>43.658101078646403</v>
+      </c>
+      <c r="E92" s="33">
+        <v>1.4597250705289491</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B93" t="s">
+        <v>334</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="33">
+        <v>43.69400867593771</v>
+      </c>
+      <c r="E93" s="33">
+        <v>1.3882260276152789</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B94" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="33">
+        <v>43.532464613988651</v>
+      </c>
+      <c r="E94" s="33">
+        <v>1.4641987512971451</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B95" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D95" s="33">
+        <v>43.832972329767173</v>
+      </c>
+      <c r="E95" s="33">
+        <v>2.9896469677016451</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B96" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="33">
+        <v>43.741726879250741</v>
+      </c>
+      <c r="E96" s="33">
+        <v>0.23695170074281829</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B97" t="s">
+        <v>351</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="33">
+        <v>43.502005217593947</v>
+      </c>
+      <c r="E97" s="33">
+        <v>1.427007206473045</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B98" t="s">
+        <v>351</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="33">
+        <v>44.86578776031071</v>
+      </c>
+      <c r="E98" s="33">
+        <v>-0.7510696971327625</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B99" t="s">
+        <v>351</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="33">
+        <v>43.176808349068068</v>
+      </c>
+      <c r="E99" s="33">
+        <v>-1.1669374609046179</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B100" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="33">
+        <v>43.538866912550617</v>
+      </c>
+      <c r="E100" s="33">
+        <v>1.444293384528492</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B101" t="s">
+        <v>334</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="33">
+        <v>43.597421255884598</v>
+      </c>
+      <c r="E101" s="33">
+        <v>1.4742650312607619</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B102" t="s">
+        <v>351</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="33">
+        <v>43.469349554970442</v>
+      </c>
+      <c r="E102" s="33">
+        <v>1.2919649426316191</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>351</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D103" s="33">
+        <v>43.587124606814569</v>
+      </c>
+      <c r="E103" s="33">
+        <v>1.3288258479504409</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>351</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="33">
+        <v>43.58565444619849</v>
+      </c>
+      <c r="E104" s="33">
+        <v>1.43631176914862</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B105" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="33">
+        <v>45.792641444380301</v>
+      </c>
+      <c r="E105" s="33">
+        <v>2.2220129767655861</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>351</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="33">
+        <v>43.638494127870281</v>
+      </c>
+      <c r="E106" s="33">
+        <v>1.30334232159937</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B107" t="s">
+        <v>351</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D107" s="33">
+        <v>43.332474497102467</v>
+      </c>
+      <c r="E107" s="33">
+        <v>-1.1288177886531201</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B108" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="33">
+        <v>44.502973369316827</v>
+      </c>
+      <c r="E108" s="33">
+        <v>2.6753727175410429</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B109" t="s">
+        <v>351</v>
+      </c>
+      <c r="C109" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="33">
+        <v>43.530704112445108</v>
+      </c>
+      <c r="E109" s="33">
+        <v>1.3098066210210739</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B110" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" s="33">
+        <v>42.870654435856963</v>
+      </c>
+      <c r="E110" s="33">
+        <v>0.47749228379874648</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B111" t="s">
+        <v>48</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="33">
+        <v>43.751741205818931</v>
+      </c>
+      <c r="E111" s="33">
+        <v>1.324417661259879</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B112" t="s">
+        <v>351</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D112" s="33">
+        <v>44.928944042227023</v>
+      </c>
+      <c r="E112" s="33">
+        <v>0.39855884201124703</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B113" t="s">
+        <v>155</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="33">
+        <v>43.445651753351271</v>
+      </c>
+      <c r="E113" s="33">
+        <v>-1.4958648630737159</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B114" t="s">
+        <v>130</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="33">
+        <v>43.618602301464144</v>
+      </c>
+      <c r="E114" s="33">
+        <v>-0.74856244926560922</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B115" t="s">
+        <v>351</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="33">
+        <v>46.270490302690831</v>
+      </c>
+      <c r="E115" s="33">
+        <v>-0.46749593718520932</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B116" t="s">
+        <v>351</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="33">
+        <v>45.373684252251962</v>
+      </c>
+      <c r="E116" s="33">
+        <v>1.949769284829578</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B117" t="s">
+        <v>351</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="33">
+        <v>46.177962893950777</v>
+      </c>
+      <c r="E117" s="33">
+        <v>-0.39830786185247857</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B118" t="s">
+        <v>334</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="33">
+        <v>43.742729465912262</v>
+      </c>
+      <c r="E118" s="33">
+        <v>1.4060771641040219</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B119" t="s">
+        <v>334</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="33">
+        <v>43.263410914464778</v>
+      </c>
+      <c r="E119" s="33">
+        <v>-0.40636201242220649</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B120" t="s">
+        <v>334</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" s="33">
+        <v>43.510600410736302</v>
+      </c>
+      <c r="E120" s="33">
+        <v>1.451151457999492</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B121" t="s">
+        <v>351</v>
+      </c>
+      <c r="C121" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="33">
+        <v>43.488638150347583</v>
+      </c>
+      <c r="E121" s="33">
+        <v>1.374920883748052</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B122" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D122" s="33">
+        <v>43.627123058362542</v>
+      </c>
+      <c r="E122" s="33">
+        <v>-1.351230140078868</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B123" t="s">
+        <v>351</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="33">
+        <v>43.389995543902081</v>
+      </c>
+      <c r="E123" s="33">
+        <v>1.244120185807821</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B124" t="s">
+        <v>134</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="33">
+        <v>43.480802418775497</v>
+      </c>
+      <c r="E124" s="33">
+        <v>-1.486633608157186</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B125" t="s">
+        <v>351</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" s="33">
+        <v>43.395607320467398</v>
+      </c>
+      <c r="E125" s="33">
+        <v>1.460082880064552</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B126" t="s">
+        <v>48</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="33">
+        <v>43.352705044726093</v>
+      </c>
+      <c r="E126" s="33">
+        <v>-0.45808832891586221</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B127" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="33">
+        <v>45.098011072928053</v>
+      </c>
+      <c r="E127" s="33">
+        <v>-0.91665835385084316</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B128" t="s">
+        <v>351</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="33">
+        <v>43.428484894638878</v>
+      </c>
+      <c r="E128" s="33">
+        <v>1.2084151437018349</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B129" t="s">
+        <v>70</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D129" s="33">
+        <v>44.711622085409928</v>
+      </c>
+      <c r="E129" s="33">
+        <v>1.699694453686952</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B130" t="s">
+        <v>48</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="33">
+        <v>43.459664846609911</v>
+      </c>
+      <c r="E130" s="33">
+        <v>0.5430174456270308</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B131" t="s">
+        <v>351</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="33">
+        <v>43.605157595445412</v>
+      </c>
+      <c r="E131" s="33">
+        <v>1.4804460071370109</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B132" t="s">
+        <v>334</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="33">
+        <v>46.100083901189343</v>
+      </c>
+      <c r="E132" s="33">
+        <v>0.74984765955367949</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B133" t="s">
+        <v>351</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="33">
+        <v>43.748536757544869</v>
+      </c>
+      <c r="E133" s="33">
+        <v>1.4402319518284239</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B134" t="s">
+        <v>84</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="33">
+        <v>43.808335191835198</v>
+      </c>
+      <c r="E134" s="33">
+        <v>2.962146738329682</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B135" t="s">
+        <v>351</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" s="33">
+        <v>43.945641779210767</v>
+      </c>
+      <c r="E135" s="33">
+        <v>1.5646920764597889</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B136" t="s">
+        <v>334</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="33">
+        <v>45.845597086816419</v>
+      </c>
+      <c r="E136" s="33">
+        <v>-0.29323050702895898</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B137" t="s">
+        <v>130</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="33">
+        <v>43.753567263120608</v>
+      </c>
+      <c r="E137" s="33">
+        <v>-1.088389368219238</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B138" t="s">
+        <v>79</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D138" s="33">
+        <v>43.512782096962333</v>
+      </c>
+      <c r="E138" s="33">
+        <v>-1.4007586445954761</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B139" t="s">
+        <v>160</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D139" s="33">
+        <v>43.539689911422521</v>
+      </c>
+      <c r="E139" s="33">
+        <v>-1.3081594724558001</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B140" t="s">
+        <v>46</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" s="33">
+        <v>43.575263670453602</v>
+      </c>
+      <c r="E140" s="33">
+        <v>1.46536217660358</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B141" t="s">
+        <v>134</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" s="33">
+        <v>44.376306391728072</v>
+      </c>
+      <c r="E141" s="33">
+        <v>1.7127569680681161</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B142" t="s">
+        <v>351</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" s="33">
+        <v>45.620728042542368</v>
+      </c>
+      <c r="E142" s="33">
+        <v>0.1042200271443931</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B143" t="s">
+        <v>351</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" s="33">
+        <v>44.774358953717943</v>
+      </c>
+      <c r="E143" s="33">
+        <v>1.1163769971579489</v>
+      </c>
+      <c r="F143" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B144" t="s">
+        <v>351</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" s="33">
+        <v>44.094864773070903</v>
+      </c>
+      <c r="E144" s="33">
+        <v>2.236332350267817</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B145" t="s">
+        <v>351</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" s="33">
+        <v>43.722301516777449</v>
+      </c>
+      <c r="E145" s="33">
+        <v>1.45399402875325</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B146" t="s">
+        <v>334</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D146" s="33">
+        <v>43.64109205402287</v>
+      </c>
+      <c r="E146" s="33">
+        <v>1.303167238655301</v>
+      </c>
+      <c r="F146" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B147" t="s">
+        <v>46</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" s="33">
+        <v>46.954218043540301</v>
+      </c>
+      <c r="E147" s="33">
+        <v>-0.68733283191230543</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B148" t="s">
+        <v>46</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="33">
+        <v>43.49273823154067</v>
+      </c>
+      <c r="E148" s="33">
+        <v>1.4895928516349179</v>
+      </c>
+      <c r="F148" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B149" t="s">
+        <v>351</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" s="33">
+        <v>43.600129524252807</v>
+      </c>
+      <c r="E149" s="33">
+        <v>1.527299343925842</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B150" t="s">
+        <v>48</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" s="33">
+        <v>43.107831827638087</v>
+      </c>
+      <c r="E150" s="33">
+        <v>0.1057009207612184</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B151" t="s">
+        <v>351</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" s="33">
+        <v>45.964820946483371</v>
+      </c>
+      <c r="E151" s="33">
+        <v>-0.59453037827162258</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B152" t="s">
+        <v>351</v>
+      </c>
+      <c r="C152" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152" s="33">
+        <v>43.665657874960878</v>
+      </c>
+      <c r="E152" s="33">
+        <v>1.4523873123435811</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B153" t="s">
+        <v>84</v>
+      </c>
+      <c r="C153" t="s">
+        <v>3</v>
+      </c>
+      <c r="D153" s="33">
+        <v>44.489956578430373</v>
+      </c>
+      <c r="E153" s="33">
+        <v>-0.27859558310000992</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B154" t="s">
+        <v>351</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" s="33">
+        <v>45.644182127505992</v>
+      </c>
+      <c r="E154" s="33">
+        <v>0.45501748979546119</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B155" t="s">
+        <v>334</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D155" s="33">
+        <v>45.46887167119116</v>
+      </c>
+      <c r="E155" s="33">
+        <v>2.3121413668560948</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" s="33">
+        <v>43.682220989135253</v>
+      </c>
+      <c r="E156" s="33">
+        <v>1.476490898404518</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B157" t="s">
+        <v>334</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" s="33">
+        <v>46.263019956271577</v>
+      </c>
+      <c r="E157" s="33">
+        <v>-1.170535737356692</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B158" t="s">
+        <v>334</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" s="33">
+        <v>45.991775264559507</v>
+      </c>
+      <c r="E158" s="33">
+        <v>2.3134279072226609</v>
+      </c>
+      <c r="F158" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B159" t="s">
+        <v>134</v>
+      </c>
+      <c r="C159" t="s">
+        <v>3</v>
+      </c>
+      <c r="D159" s="33">
+        <v>44.558633885623927</v>
+      </c>
+      <c r="E159" s="33">
+        <v>-0.16973508146966709</v>
+      </c>
+      <c r="F159" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B160" t="s">
+        <v>334</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="33">
+        <v>45.602502784222693</v>
+      </c>
+      <c r="E160" s="33">
+        <v>-1.094494550584924</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B161" t="s">
+        <v>334</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" s="33">
+        <v>46.062691121596472</v>
+      </c>
+      <c r="E161" s="33">
+        <v>-1.084663602957475</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B162" t="s">
+        <v>351</v>
+      </c>
+      <c r="C162" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" s="33">
+        <v>44.907491390261967</v>
+      </c>
+      <c r="E162" s="33">
+        <v>-0.55015397028539392</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B163" t="s">
+        <v>134</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" s="33">
+        <v>44.506046757227487</v>
+      </c>
+      <c r="E163" s="33">
+        <v>1.1055798873443179</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B164" t="s">
+        <v>70</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" s="33">
+        <v>44.466332790679971</v>
+      </c>
+      <c r="E164" s="33">
+        <v>1.122363064965809</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B165" t="s">
+        <v>63</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D165" s="33">
+        <v>44.692459385153597</v>
+      </c>
+      <c r="E165" s="33">
+        <v>0.53287681859794334</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B166" t="s">
+        <v>351</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" s="33">
+        <v>46.428139087606162</v>
+      </c>
+      <c r="E166" s="33">
+        <v>-0.13212817370598781</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B167" t="s">
+        <v>134</v>
+      </c>
+      <c r="C167" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167" s="33">
+        <v>44.717172914675508</v>
+      </c>
+      <c r="E167" s="33">
+        <v>1.3177722222762991</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B168" t="s">
+        <v>225</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" s="33">
+        <v>44.492148376390517</v>
+      </c>
+      <c r="E168" s="33">
+        <v>1.282761966977366</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B169" t="s">
+        <v>130</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D169" s="33">
+        <v>43.879594038000022</v>
+      </c>
+      <c r="E169" s="33">
+        <v>-0.97244682087775003</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B170" t="s">
+        <v>351</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D170" s="33">
+        <v>47.102914739210981</v>
+      </c>
+      <c r="E170" s="33">
+        <v>-0.1819004205564155</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B171" t="s">
+        <v>60</v>
+      </c>
+      <c r="C171" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" s="33">
+        <v>44.129088477902741</v>
+      </c>
+      <c r="E171" s="33">
+        <v>0.46163066982189122</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1099</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4577,3450 +7962,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:F171"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="33">
-        <v>46.615953294355222</v>
-      </c>
-      <c r="E2" s="33">
-        <v>-0.21034809587029771</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D3" s="33">
-        <v>43.502648866636378</v>
-      </c>
-      <c r="E3" s="33">
-        <v>0.21340461754543771</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="33">
-        <v>44.720492306259231</v>
-      </c>
-      <c r="E4" s="33">
-        <v>-0.69093368608216776</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="33">
-        <v>43.021797942174551</v>
-      </c>
-      <c r="E5" s="33">
-        <v>1.88522061096028</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D6" s="33">
-        <v>46.14553530195343</v>
-      </c>
-      <c r="E6" s="33">
-        <v>-0.94684504983751794</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="33">
-        <v>44.006287611253462</v>
-      </c>
-      <c r="E7" s="33">
-        <v>2.1033318076309251</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D8" s="33">
-        <v>42.983082015896187</v>
-      </c>
-      <c r="E8" s="33">
-        <v>1.2834175195343149</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="33">
-        <v>43.914835515382137</v>
-      </c>
-      <c r="E9" s="33">
-        <v>2.193465678043514</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="33">
-        <v>43.391340710797209</v>
-      </c>
-      <c r="E10" s="33">
-        <v>1.270543369033752</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B11" t="s">
-        <v>351</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D11" s="33">
-        <v>45.536713091467902</v>
-      </c>
-      <c r="E11" s="33">
-        <v>0.20094818564177361</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B12" t="s">
-        <v>334</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="33">
-        <v>43.607329721601829</v>
-      </c>
-      <c r="E12" s="33">
-        <v>2.157340166863507</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D13" s="33">
-        <v>43.240985771172987</v>
-      </c>
-      <c r="E13" s="33">
-        <v>-0.98409312743015775</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="33">
-        <v>44.007154468459873</v>
-      </c>
-      <c r="E14" s="33">
-        <v>0.3990940484614669</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="33">
-        <v>44.035551500235613</v>
-      </c>
-      <c r="E15" s="33">
-        <v>-0.8237415692890574</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B16" t="s">
-        <v>351</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="33">
-        <v>43.918344530726159</v>
-      </c>
-      <c r="E16" s="33">
-        <v>2.1912123306928688</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="33">
-        <v>43.504587615064203</v>
-      </c>
-      <c r="E17" s="33">
-        <v>1.272672897956832</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B18" t="s">
-        <v>351</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D18" s="33">
-        <v>43.523674647031847</v>
-      </c>
-      <c r="E18" s="33">
-        <v>1.462113963892117</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="33">
-        <v>43.592395522881169</v>
-      </c>
-      <c r="E19" s="33">
-        <v>1.3937086457565691</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B20" t="s">
-        <v>351</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="33">
-        <v>43.544174552113503</v>
-      </c>
-      <c r="E20" s="33">
-        <v>1.4691083539895939</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="33">
-        <v>43.865776383507743</v>
-      </c>
-      <c r="E21" s="33">
-        <v>-0.59365972661840649</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D22" s="33">
-        <v>43.640043502896717</v>
-      </c>
-      <c r="E22" s="33">
-        <v>-1.3071990698184011</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B23" t="s">
-        <v>334</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="33">
-        <v>46.020200614473268</v>
-      </c>
-      <c r="E23" s="33">
-        <v>-1.0086991725762451</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="33">
-        <v>43.398288874715213</v>
-      </c>
-      <c r="E24" s="33">
-        <v>2.2396154215294062</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="33">
-        <v>44.23639980184003</v>
-      </c>
-      <c r="E25" s="33">
-        <v>2.589887756585469</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D26" s="33">
-        <v>43.759736436219072</v>
-      </c>
-      <c r="E26" s="33">
-        <v>1.6794275396983549</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="33">
-        <v>44.031601615829352</v>
-      </c>
-      <c r="E27" s="33">
-        <v>-8.9672193728331157E-2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B28" t="s">
-        <v>351</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="33">
-        <v>43.425050360976762</v>
-      </c>
-      <c r="E28" s="33">
-        <v>1.641678375629007</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B29" t="s">
-        <v>351</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="33">
-        <v>43.675127637147497</v>
-      </c>
-      <c r="E29" s="33">
-        <v>1.7813609104396271</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="33">
-        <v>44.815039537082981</v>
-      </c>
-      <c r="E30" s="33">
-        <v>1.5726398188409341</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="33">
-        <v>43.805475473401877</v>
-      </c>
-      <c r="E31" s="33">
-        <v>2.7568631362538079</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D32" s="33">
-        <v>43.224786024890932</v>
-      </c>
-      <c r="E32" s="33">
-        <v>1.2069623371025711</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B33" t="s">
-        <v>351</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="33">
-        <v>43.688798142932271</v>
-      </c>
-      <c r="E33" s="33">
-        <v>1.343604267603149</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B34" t="s">
-        <v>225</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="33">
-        <v>44.336240087904748</v>
-      </c>
-      <c r="E34" s="33">
-        <v>1.3021592866685019</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="33">
-        <v>43.46734167595325</v>
-      </c>
-      <c r="E35" s="33">
-        <v>1.4067061260196581</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B36" t="s">
-        <v>351</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="33">
-        <v>46.191623207717917</v>
-      </c>
-      <c r="E36" s="33">
-        <v>-0.23469717566457349</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B37" t="s">
-        <v>351</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="33">
-        <v>43.661522525266427</v>
-      </c>
-      <c r="E37" s="33">
-        <v>1.335996211363671</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B38" t="s">
-        <v>668</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="33">
-        <v>45.757009149436612</v>
-      </c>
-      <c r="E38" s="33">
-        <v>-1.0583993045393929</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B39" t="s">
-        <v>351</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="33">
-        <v>43.952726814561203</v>
-      </c>
-      <c r="E39" s="33">
-        <v>2.1927550318550639</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="33">
-        <v>44.685442714855547</v>
-      </c>
-      <c r="E40" s="33">
-        <v>-0.6982297350426141</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D41" s="33">
-        <v>43.553745277247657</v>
-      </c>
-      <c r="E41" s="33">
-        <v>1.4155239243447491</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B42" t="s">
-        <v>194</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="33">
-        <v>44.101029820901992</v>
-      </c>
-      <c r="E42" s="33">
-        <v>-0.85664155127427444</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B43" t="s">
-        <v>351</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="33">
-        <v>45.203596678720778</v>
-      </c>
-      <c r="E43" s="33">
-        <v>1.277111195570644</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B44" t="s">
-        <v>351</v>
-      </c>
-      <c r="C44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="33">
-        <v>45.467391863695127</v>
-      </c>
-      <c r="E44" s="33">
-        <v>-0.48709525916613788</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B45" t="s">
-        <v>351</v>
-      </c>
-      <c r="C45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="33">
-        <v>43.233911777864932</v>
-      </c>
-      <c r="E45" s="33">
-        <v>-0.32589958337379338</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B46" t="s">
-        <v>334</v>
-      </c>
-      <c r="C46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="33">
-        <v>44.200613387383207</v>
-      </c>
-      <c r="E46" s="33">
-        <v>2.5086490936295092</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B47" t="s">
-        <v>351</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D47" s="33">
-        <v>43.750985763181717</v>
-      </c>
-      <c r="E47" s="33">
-        <v>1.3681353253161681</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B48" t="s">
-        <v>351</v>
-      </c>
-      <c r="C48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="33">
-        <v>43.339957258684898</v>
-      </c>
-      <c r="E48" s="33">
-        <v>-9.8775599042808471E-2</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="33">
-        <v>44.971887020572062</v>
-      </c>
-      <c r="E49" s="33">
-        <v>1.327118219976664</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B50" t="s">
-        <v>351</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D50" s="33">
-        <v>45.273786676879652</v>
-      </c>
-      <c r="E50" s="33">
-        <v>1.2200670358140471</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="33">
-        <v>43.736633361568757</v>
-      </c>
-      <c r="E51" s="33">
-        <v>-0.25075196884130863</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B52" t="s">
-        <v>334</v>
-      </c>
-      <c r="C52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="33">
-        <v>46.384416152336193</v>
-      </c>
-      <c r="E52" s="33">
-        <v>-0.42757460198491609</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B53" t="s">
-        <v>334</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D53" s="33">
-        <v>45.666012748796653</v>
-      </c>
-      <c r="E53" s="33">
-        <v>2.258223357858181</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="33">
-        <v>45.017698644186027</v>
-      </c>
-      <c r="E54" s="33">
-        <v>-1.0701318832816289</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B55" t="s">
-        <v>351</v>
-      </c>
-      <c r="C55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="33">
-        <v>43.602296067990117</v>
-      </c>
-      <c r="E55" s="33">
-        <v>1.247240373732994</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B56" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="33">
-        <v>44.308696869209157</v>
-      </c>
-      <c r="E56" s="33">
-        <v>-0.15674583306753689</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B57" t="s">
-        <v>334</v>
-      </c>
-      <c r="C57" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="33">
-        <v>47.02516522258253</v>
-      </c>
-      <c r="E57" s="33">
-        <v>-0.32493444924537263</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B58" t="s">
-        <v>334</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="33">
-        <v>43.61743746997265</v>
-      </c>
-      <c r="E58" s="33">
-        <v>1.489236925992679</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="33">
-        <v>43.689794187100681</v>
-      </c>
-      <c r="E59" s="33">
-        <v>3.4847748824814603E-2</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B60" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="33">
-        <v>44.510257661081397</v>
-      </c>
-      <c r="E60" s="33">
-        <v>2.0605087666726698</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B61" t="s">
-        <v>334</v>
-      </c>
-      <c r="C61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="33">
-        <v>44.366304801706526</v>
-      </c>
-      <c r="E61" s="33">
-        <v>2.619535123864758</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B62" t="s">
-        <v>351</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="33">
-        <v>43.69895417790093</v>
-      </c>
-      <c r="E62" s="33">
-        <v>1.458688329882956</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B63" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="33">
-        <v>44.01882313274114</v>
-      </c>
-      <c r="E63" s="33">
-        <v>2.133719345030769</v>
-      </c>
-      <c r="F63" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="33">
-        <v>44.639864313250371</v>
-      </c>
-      <c r="E64" s="33">
-        <v>0.51904416027984435</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="33">
-        <v>43.455878222339763</v>
-      </c>
-      <c r="E65" s="33">
-        <v>1.36666097500424</v>
-      </c>
-      <c r="F65" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B66" t="s">
-        <v>55</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D66" s="33">
-        <v>43.546964742994831</v>
-      </c>
-      <c r="E66" s="33">
-        <v>-1.5018684916647911</v>
-      </c>
-      <c r="F66" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B67" t="s">
-        <v>334</v>
-      </c>
-      <c r="C67" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="33">
-        <v>46.348069072404257</v>
-      </c>
-      <c r="E67" s="33">
-        <v>-0.16829025664533201</v>
-      </c>
-      <c r="F67" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="33">
-        <v>45.317393116613573</v>
-      </c>
-      <c r="E68" s="33">
-        <v>1.81143349409623</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B69" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="33">
-        <v>45.122764763608728</v>
-      </c>
-      <c r="E69" s="33">
-        <v>0.35821490577630122</v>
-      </c>
-      <c r="F69" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B70" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="33">
-        <v>42.957860786326172</v>
-      </c>
-      <c r="E70" s="33">
-        <v>1.3055462494941481</v>
-      </c>
-      <c r="F70" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B71" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" s="33">
-        <v>43.988990562447412</v>
-      </c>
-      <c r="E71" s="33">
-        <v>2.0114491418412861</v>
-      </c>
-      <c r="F71" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B72" t="s">
-        <v>351</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="33">
-        <v>43.535828048515711</v>
-      </c>
-      <c r="E72" s="33">
-        <v>1.4271835218257971</v>
-      </c>
-      <c r="F72" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B73" t="s">
-        <v>334</v>
-      </c>
-      <c r="C73" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" s="33">
-        <v>43.827314741953963</v>
-      </c>
-      <c r="E73" s="33">
-        <v>1.6833237640940759</v>
-      </c>
-      <c r="F73" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B74" t="s">
-        <v>104</v>
-      </c>
-      <c r="C74" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="33">
-        <v>44.556183382297483</v>
-      </c>
-      <c r="E74" s="33">
-        <v>1.0436887227547931</v>
-      </c>
-      <c r="F74" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B75" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D75" s="33">
-        <v>44.615048654883438</v>
-      </c>
-      <c r="E75" s="33">
-        <v>2.037814616865242</v>
-      </c>
-      <c r="F75" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B76" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="33">
-        <v>45.890967140188643</v>
-      </c>
-      <c r="E76" s="33">
-        <v>1.791781899508069</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B77" t="s">
-        <v>160</v>
-      </c>
-      <c r="C77" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" s="33">
-        <v>44.524576532544437</v>
-      </c>
-      <c r="E77" s="33">
-        <v>1.938529913542399</v>
-      </c>
-      <c r="F77" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B78" t="s">
-        <v>351</v>
-      </c>
-      <c r="C78" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="33">
-        <v>43.542103115805602</v>
-      </c>
-      <c r="E78" s="33">
-        <v>1.5619091447699751</v>
-      </c>
-      <c r="F78" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B79" t="s">
-        <v>334</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D79" s="33">
-        <v>43.696536860470957</v>
-      </c>
-      <c r="E79" s="33">
-        <v>1.6989640281507099</v>
-      </c>
-      <c r="F79" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="33">
-        <v>43.731609298220903</v>
-      </c>
-      <c r="E80" s="33">
-        <v>-1.0810702973637909</v>
-      </c>
-      <c r="F80" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B81" t="s">
-        <v>220</v>
-      </c>
-      <c r="C81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81" s="33">
-        <v>43.974274567555838</v>
-      </c>
-      <c r="E81" s="33">
-        <v>-0.4775894473437714</v>
-      </c>
-      <c r="F81" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B82" t="s">
-        <v>351</v>
-      </c>
-      <c r="C82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82" s="33">
-        <v>45.617025458113922</v>
-      </c>
-      <c r="E82" s="33">
-        <v>8.7862241011261943E-2</v>
-      </c>
-      <c r="F82" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B83" t="s">
-        <v>334</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D83" s="33">
-        <v>43.568487073397087</v>
-      </c>
-      <c r="E83" s="33">
-        <v>2.3861265321346008</v>
-      </c>
-      <c r="F83" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B84" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" s="33">
-        <v>44.334085247302298</v>
-      </c>
-      <c r="E84" s="33">
-        <v>2.6368144178775839</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B85" t="s">
-        <v>334</v>
-      </c>
-      <c r="C85" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" s="33">
-        <v>46.341495872866801</v>
-      </c>
-      <c r="E85" s="33">
-        <v>-0.32815625743931948</v>
-      </c>
-      <c r="F85" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B86" t="s">
-        <v>79</v>
-      </c>
-      <c r="C86" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" s="33">
-        <v>44.305333363141671</v>
-      </c>
-      <c r="E86" s="33">
-        <v>0.53421427217025341</v>
-      </c>
-      <c r="F86" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B87" t="s">
-        <v>155</v>
-      </c>
-      <c r="C87" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87" s="33">
-        <v>44.28854430813216</v>
-      </c>
-      <c r="E87" s="33">
-        <v>0.87223412066404948</v>
-      </c>
-      <c r="F87" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B88" t="s">
-        <v>351</v>
-      </c>
-      <c r="C88" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" s="33">
-        <v>45.632216058427808</v>
-      </c>
-      <c r="E88" s="33">
-        <v>-0.58624293330177013</v>
-      </c>
-      <c r="F88" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B89" t="s">
-        <v>48</v>
-      </c>
-      <c r="C89" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="33">
-        <v>46.110928854298052</v>
-      </c>
-      <c r="E89" s="33">
-        <v>-1.191277663423489</v>
-      </c>
-      <c r="F89" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B90" t="s">
-        <v>351</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D90" s="33">
-        <v>43.388483133588601</v>
-      </c>
-      <c r="E90" s="33">
-        <v>-0.28879121821512449</v>
-      </c>
-      <c r="F90" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B91" t="s">
-        <v>351</v>
-      </c>
-      <c r="C91" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" s="33">
-        <v>44.68029885859459</v>
-      </c>
-      <c r="E91" s="33">
-        <v>1.141700999669965</v>
-      </c>
-      <c r="F91" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B92" t="s">
-        <v>351</v>
-      </c>
-      <c r="C92" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="33">
-        <v>43.658101078646403</v>
-      </c>
-      <c r="E92" s="33">
-        <v>1.4597250705289491</v>
-      </c>
-      <c r="F92" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B93" t="s">
-        <v>334</v>
-      </c>
-      <c r="C93" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="33">
-        <v>43.69400867593771</v>
-      </c>
-      <c r="E93" s="33">
-        <v>1.3882260276152789</v>
-      </c>
-      <c r="F93" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B94" t="s">
-        <v>46</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" s="33">
-        <v>43.532464613988651</v>
-      </c>
-      <c r="E94" s="33">
-        <v>1.4641987512971451</v>
-      </c>
-      <c r="F94" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B95" t="s">
-        <v>84</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D95" s="33">
-        <v>43.832972329767173</v>
-      </c>
-      <c r="E95" s="33">
-        <v>2.9896469677016451</v>
-      </c>
-      <c r="F95" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B96" t="s">
-        <v>48</v>
-      </c>
-      <c r="C96" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="33">
-        <v>43.741726879250741</v>
-      </c>
-      <c r="E96" s="33">
-        <v>0.23695170074281829</v>
-      </c>
-      <c r="F96" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B97" t="s">
-        <v>351</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" s="33">
-        <v>43.502005217593947</v>
-      </c>
-      <c r="E97" s="33">
-        <v>1.427007206473045</v>
-      </c>
-      <c r="F97" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B98" t="s">
-        <v>351</v>
-      </c>
-      <c r="C98" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="33">
-        <v>44.86578776031071</v>
-      </c>
-      <c r="E98" s="33">
-        <v>-0.7510696971327625</v>
-      </c>
-      <c r="F98" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B99" t="s">
-        <v>351</v>
-      </c>
-      <c r="C99" t="s">
-        <v>4</v>
-      </c>
-      <c r="D99" s="33">
-        <v>43.176808349068068</v>
-      </c>
-      <c r="E99" s="33">
-        <v>-1.1669374609046179</v>
-      </c>
-      <c r="F99" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B100" t="s">
-        <v>48</v>
-      </c>
-      <c r="C100" t="s">
-        <v>2</v>
-      </c>
-      <c r="D100" s="33">
-        <v>43.538866912550617</v>
-      </c>
-      <c r="E100" s="33">
-        <v>1.444293384528492</v>
-      </c>
-      <c r="F100" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B101" t="s">
-        <v>334</v>
-      </c>
-      <c r="C101" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" s="33">
-        <v>43.597421255884598</v>
-      </c>
-      <c r="E101" s="33">
-        <v>1.4742650312607619</v>
-      </c>
-      <c r="F101" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B102" t="s">
-        <v>351</v>
-      </c>
-      <c r="C102" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" s="33">
-        <v>43.469349554970442</v>
-      </c>
-      <c r="E102" s="33">
-        <v>1.2919649426316191</v>
-      </c>
-      <c r="F102" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B103" t="s">
-        <v>351</v>
-      </c>
-      <c r="C103" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D103" s="33">
-        <v>43.587124606814569</v>
-      </c>
-      <c r="E103" s="33">
-        <v>1.3288258479504409</v>
-      </c>
-      <c r="F103" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B104" t="s">
-        <v>351</v>
-      </c>
-      <c r="C104" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" s="33">
-        <v>43.58565444619849</v>
-      </c>
-      <c r="E104" s="33">
-        <v>1.43631176914862</v>
-      </c>
-      <c r="F104" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B105" t="s">
-        <v>48</v>
-      </c>
-      <c r="C105" t="s">
-        <v>4</v>
-      </c>
-      <c r="D105" s="33">
-        <v>45.792641444380301</v>
-      </c>
-      <c r="E105" s="33">
-        <v>2.2220129767655861</v>
-      </c>
-      <c r="F105" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B106" t="s">
-        <v>351</v>
-      </c>
-      <c r="C106" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="33">
-        <v>43.638494127870281</v>
-      </c>
-      <c r="E106" s="33">
-        <v>1.30334232159937</v>
-      </c>
-      <c r="F106" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B107" t="s">
-        <v>351</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D107" s="33">
-        <v>43.332474497102467</v>
-      </c>
-      <c r="E107" s="33">
-        <v>-1.1288177886531201</v>
-      </c>
-      <c r="F107" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B108" t="s">
-        <v>46</v>
-      </c>
-      <c r="C108" t="s">
-        <v>4</v>
-      </c>
-      <c r="D108" s="33">
-        <v>44.502973369316827</v>
-      </c>
-      <c r="E108" s="33">
-        <v>2.6753727175410429</v>
-      </c>
-      <c r="F108" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B109" t="s">
-        <v>351</v>
-      </c>
-      <c r="C109" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="33">
-        <v>43.530704112445108</v>
-      </c>
-      <c r="E109" s="33">
-        <v>1.3098066210210739</v>
-      </c>
-      <c r="F109" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B110" t="s">
-        <v>46</v>
-      </c>
-      <c r="C110" t="s">
-        <v>4</v>
-      </c>
-      <c r="D110" s="33">
-        <v>42.870654435856963</v>
-      </c>
-      <c r="E110" s="33">
-        <v>0.47749228379874648</v>
-      </c>
-      <c r="F110" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B111" t="s">
-        <v>48</v>
-      </c>
-      <c r="C111" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="33">
-        <v>43.751741205818931</v>
-      </c>
-      <c r="E111" s="33">
-        <v>1.324417661259879</v>
-      </c>
-      <c r="F111" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B112" t="s">
-        <v>351</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D112" s="33">
-        <v>44.928944042227023</v>
-      </c>
-      <c r="E112" s="33">
-        <v>0.39855884201124703</v>
-      </c>
-      <c r="F112" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B113" t="s">
-        <v>155</v>
-      </c>
-      <c r="C113" t="s">
-        <v>4</v>
-      </c>
-      <c r="D113" s="33">
-        <v>43.445651753351271</v>
-      </c>
-      <c r="E113" s="33">
-        <v>-1.4958648630737159</v>
-      </c>
-      <c r="F113" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B114" t="s">
-        <v>130</v>
-      </c>
-      <c r="C114" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" s="33">
-        <v>43.618602301464144</v>
-      </c>
-      <c r="E114" s="33">
-        <v>-0.74856244926560922</v>
-      </c>
-      <c r="F114" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B115" t="s">
-        <v>351</v>
-      </c>
-      <c r="C115" t="s">
-        <v>4</v>
-      </c>
-      <c r="D115" s="33">
-        <v>46.270490302690831</v>
-      </c>
-      <c r="E115" s="33">
-        <v>-0.46749593718520932</v>
-      </c>
-      <c r="F115" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B116" t="s">
-        <v>351</v>
-      </c>
-      <c r="C116" t="s">
-        <v>4</v>
-      </c>
-      <c r="D116" s="33">
-        <v>45.373684252251962</v>
-      </c>
-      <c r="E116" s="33">
-        <v>1.949769284829578</v>
-      </c>
-      <c r="F116" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B117" t="s">
-        <v>351</v>
-      </c>
-      <c r="C117" t="s">
-        <v>4</v>
-      </c>
-      <c r="D117" s="33">
-        <v>46.177962893950777</v>
-      </c>
-      <c r="E117" s="33">
-        <v>-0.39830786185247857</v>
-      </c>
-      <c r="F117" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B118" t="s">
-        <v>334</v>
-      </c>
-      <c r="C118" t="s">
-        <v>2</v>
-      </c>
-      <c r="D118" s="33">
-        <v>43.742729465912262</v>
-      </c>
-      <c r="E118" s="33">
-        <v>1.4060771641040219</v>
-      </c>
-      <c r="F118" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B119" t="s">
-        <v>334</v>
-      </c>
-      <c r="C119" t="s">
-        <v>4</v>
-      </c>
-      <c r="D119" s="33">
-        <v>43.263410914464778</v>
-      </c>
-      <c r="E119" s="33">
-        <v>-0.40636201242220649</v>
-      </c>
-      <c r="F119" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B120" t="s">
-        <v>334</v>
-      </c>
-      <c r="C120" t="s">
-        <v>2</v>
-      </c>
-      <c r="D120" s="33">
-        <v>43.510600410736302</v>
-      </c>
-      <c r="E120" s="33">
-        <v>1.451151457999492</v>
-      </c>
-      <c r="F120" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B121" t="s">
-        <v>351</v>
-      </c>
-      <c r="C121" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="33">
-        <v>43.488638150347583</v>
-      </c>
-      <c r="E121" s="33">
-        <v>1.374920883748052</v>
-      </c>
-      <c r="F121" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B122" t="s">
-        <v>130</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D122" s="33">
-        <v>43.627123058362542</v>
-      </c>
-      <c r="E122" s="33">
-        <v>-1.351230140078868</v>
-      </c>
-      <c r="F122" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B123" t="s">
-        <v>351</v>
-      </c>
-      <c r="C123" t="s">
-        <v>2</v>
-      </c>
-      <c r="D123" s="33">
-        <v>43.389995543902081</v>
-      </c>
-      <c r="E123" s="33">
-        <v>1.244120185807821</v>
-      </c>
-      <c r="F123" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B124" t="s">
-        <v>134</v>
-      </c>
-      <c r="C124" t="s">
-        <v>4</v>
-      </c>
-      <c r="D124" s="33">
-        <v>43.480802418775497</v>
-      </c>
-      <c r="E124" s="33">
-        <v>-1.486633608157186</v>
-      </c>
-      <c r="F124" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B125" t="s">
-        <v>351</v>
-      </c>
-      <c r="C125" t="s">
-        <v>2</v>
-      </c>
-      <c r="D125" s="33">
-        <v>43.395607320467398</v>
-      </c>
-      <c r="E125" s="33">
-        <v>1.460082880064552</v>
-      </c>
-      <c r="F125" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B126" t="s">
-        <v>48</v>
-      </c>
-      <c r="C126" t="s">
-        <v>4</v>
-      </c>
-      <c r="D126" s="33">
-        <v>43.352705044726093</v>
-      </c>
-      <c r="E126" s="33">
-        <v>-0.45808832891586221</v>
-      </c>
-      <c r="F126" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B127" t="s">
-        <v>90</v>
-      </c>
-      <c r="C127" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" s="33">
-        <v>45.098011072928053</v>
-      </c>
-      <c r="E127" s="33">
-        <v>-0.91665835385084316</v>
-      </c>
-      <c r="F127" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B128" t="s">
-        <v>351</v>
-      </c>
-      <c r="C128" t="s">
-        <v>2</v>
-      </c>
-      <c r="D128" s="33">
-        <v>43.428484894638878</v>
-      </c>
-      <c r="E128" s="33">
-        <v>1.2084151437018349</v>
-      </c>
-      <c r="F128" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B129" t="s">
-        <v>70</v>
-      </c>
-      <c r="C129" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D129" s="33">
-        <v>44.711622085409928</v>
-      </c>
-      <c r="E129" s="33">
-        <v>1.699694453686952</v>
-      </c>
-      <c r="F129" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B130" t="s">
-        <v>48</v>
-      </c>
-      <c r="C130" t="s">
-        <v>3</v>
-      </c>
-      <c r="D130" s="33">
-        <v>43.459664846609911</v>
-      </c>
-      <c r="E130" s="33">
-        <v>0.5430174456270308</v>
-      </c>
-      <c r="F130" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B131" t="s">
-        <v>351</v>
-      </c>
-      <c r="C131" t="s">
-        <v>2</v>
-      </c>
-      <c r="D131" s="33">
-        <v>43.605157595445412</v>
-      </c>
-      <c r="E131" s="33">
-        <v>1.4804460071370109</v>
-      </c>
-      <c r="F131" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B132" t="s">
-        <v>334</v>
-      </c>
-      <c r="C132" t="s">
-        <v>4</v>
-      </c>
-      <c r="D132" s="33">
-        <v>46.100083901189343</v>
-      </c>
-      <c r="E132" s="33">
-        <v>0.74984765955367949</v>
-      </c>
-      <c r="F132" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B133" t="s">
-        <v>351</v>
-      </c>
-      <c r="C133" t="s">
-        <v>3</v>
-      </c>
-      <c r="D133" s="33">
-        <v>43.748536757544869</v>
-      </c>
-      <c r="E133" s="33">
-        <v>1.4402319518284239</v>
-      </c>
-      <c r="F133" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B134" t="s">
-        <v>84</v>
-      </c>
-      <c r="C134" t="s">
-        <v>3</v>
-      </c>
-      <c r="D134" s="33">
-        <v>43.808335191835198</v>
-      </c>
-      <c r="E134" s="33">
-        <v>2.962146738329682</v>
-      </c>
-      <c r="F134" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B135" t="s">
-        <v>351</v>
-      </c>
-      <c r="C135" t="s">
-        <v>4</v>
-      </c>
-      <c r="D135" s="33">
-        <v>43.945641779210767</v>
-      </c>
-      <c r="E135" s="33">
-        <v>1.5646920764597889</v>
-      </c>
-      <c r="F135" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B136" t="s">
-        <v>334</v>
-      </c>
-      <c r="C136" t="s">
-        <v>4</v>
-      </c>
-      <c r="D136" s="33">
-        <v>45.845597086816419</v>
-      </c>
-      <c r="E136" s="33">
-        <v>-0.29323050702895898</v>
-      </c>
-      <c r="F136" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B137" t="s">
-        <v>130</v>
-      </c>
-      <c r="C137" t="s">
-        <v>4</v>
-      </c>
-      <c r="D137" s="33">
-        <v>43.753567263120608</v>
-      </c>
-      <c r="E137" s="33">
-        <v>-1.088389368219238</v>
-      </c>
-      <c r="F137" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B138" t="s">
-        <v>79</v>
-      </c>
-      <c r="C138" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D138" s="33">
-        <v>43.512782096962333</v>
-      </c>
-      <c r="E138" s="33">
-        <v>-1.4007586445954761</v>
-      </c>
-      <c r="F138" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B139" t="s">
-        <v>160</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D139" s="33">
-        <v>43.539689911422521</v>
-      </c>
-      <c r="E139" s="33">
-        <v>-1.3081594724558001</v>
-      </c>
-      <c r="F139" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B140" t="s">
-        <v>46</v>
-      </c>
-      <c r="C140" t="s">
-        <v>2</v>
-      </c>
-      <c r="D140" s="33">
-        <v>43.575263670453602</v>
-      </c>
-      <c r="E140" s="33">
-        <v>1.46536217660358</v>
-      </c>
-      <c r="F140" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B141" t="s">
-        <v>134</v>
-      </c>
-      <c r="C141" t="s">
-        <v>4</v>
-      </c>
-      <c r="D141" s="33">
-        <v>44.376306391728072</v>
-      </c>
-      <c r="E141" s="33">
-        <v>1.7127569680681161</v>
-      </c>
-      <c r="F141" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B142" t="s">
-        <v>351</v>
-      </c>
-      <c r="C142" t="s">
-        <v>4</v>
-      </c>
-      <c r="D142" s="33">
-        <v>45.620728042542368</v>
-      </c>
-      <c r="E142" s="33">
-        <v>0.1042200271443931</v>
-      </c>
-      <c r="F142" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B143" t="s">
-        <v>351</v>
-      </c>
-      <c r="C143" t="s">
-        <v>2</v>
-      </c>
-      <c r="D143" s="33">
-        <v>44.774358953717943</v>
-      </c>
-      <c r="E143" s="33">
-        <v>1.1163769971579489</v>
-      </c>
-      <c r="F143" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B144" t="s">
-        <v>351</v>
-      </c>
-      <c r="C144" t="s">
-        <v>4</v>
-      </c>
-      <c r="D144" s="33">
-        <v>44.094864773070903</v>
-      </c>
-      <c r="E144" s="33">
-        <v>2.236332350267817</v>
-      </c>
-      <c r="F144" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B145" t="s">
-        <v>351</v>
-      </c>
-      <c r="C145" t="s">
-        <v>2</v>
-      </c>
-      <c r="D145" s="33">
-        <v>43.722301516777449</v>
-      </c>
-      <c r="E145" s="33">
-        <v>1.45399402875325</v>
-      </c>
-      <c r="F145" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B146" t="s">
-        <v>334</v>
-      </c>
-      <c r="C146" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D146" s="33">
-        <v>43.64109205402287</v>
-      </c>
-      <c r="E146" s="33">
-        <v>1.303167238655301</v>
-      </c>
-      <c r="F146" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B147" t="s">
-        <v>46</v>
-      </c>
-      <c r="C147" t="s">
-        <v>4</v>
-      </c>
-      <c r="D147" s="33">
-        <v>46.954218043540301</v>
-      </c>
-      <c r="E147" s="33">
-        <v>-0.68733283191230543</v>
-      </c>
-      <c r="F147" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B148" t="s">
-        <v>46</v>
-      </c>
-      <c r="C148" t="s">
-        <v>2</v>
-      </c>
-      <c r="D148" s="33">
-        <v>43.49273823154067</v>
-      </c>
-      <c r="E148" s="33">
-        <v>1.4895928516349179</v>
-      </c>
-      <c r="F148" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B149" t="s">
-        <v>351</v>
-      </c>
-      <c r="C149" t="s">
-        <v>2</v>
-      </c>
-      <c r="D149" s="33">
-        <v>43.600129524252807</v>
-      </c>
-      <c r="E149" s="33">
-        <v>1.527299343925842</v>
-      </c>
-      <c r="F149" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B150" t="s">
-        <v>48</v>
-      </c>
-      <c r="C150" t="s">
-        <v>4</v>
-      </c>
-      <c r="D150" s="33">
-        <v>43.107831827638087</v>
-      </c>
-      <c r="E150" s="33">
-        <v>0.1057009207612184</v>
-      </c>
-      <c r="F150" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B151" t="s">
-        <v>351</v>
-      </c>
-      <c r="C151" t="s">
-        <v>4</v>
-      </c>
-      <c r="D151" s="33">
-        <v>45.964820946483371</v>
-      </c>
-      <c r="E151" s="33">
-        <v>-0.59453037827162258</v>
-      </c>
-      <c r="F151" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B152" t="s">
-        <v>351</v>
-      </c>
-      <c r="C152" t="s">
-        <v>3</v>
-      </c>
-      <c r="D152" s="33">
-        <v>43.665657874960878</v>
-      </c>
-      <c r="E152" s="33">
-        <v>1.4523873123435811</v>
-      </c>
-      <c r="F152" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B153" t="s">
-        <v>84</v>
-      </c>
-      <c r="C153" t="s">
-        <v>3</v>
-      </c>
-      <c r="D153" s="33">
-        <v>44.489956578430373</v>
-      </c>
-      <c r="E153" s="33">
-        <v>-0.27859558310000992</v>
-      </c>
-      <c r="F153" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B154" t="s">
-        <v>351</v>
-      </c>
-      <c r="C154" t="s">
-        <v>4</v>
-      </c>
-      <c r="D154" s="33">
-        <v>45.644182127505992</v>
-      </c>
-      <c r="E154" s="33">
-        <v>0.45501748979546119</v>
-      </c>
-      <c r="F154" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B155" t="s">
-        <v>334</v>
-      </c>
-      <c r="C155" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D155" s="33">
-        <v>45.46887167119116</v>
-      </c>
-      <c r="E155" s="33">
-        <v>2.3121413668560948</v>
-      </c>
-      <c r="F155" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B156" t="s">
-        <v>351</v>
-      </c>
-      <c r="C156" t="s">
-        <v>2</v>
-      </c>
-      <c r="D156" s="33">
-        <v>43.682220989135253</v>
-      </c>
-      <c r="E156" s="33">
-        <v>1.476490898404518</v>
-      </c>
-      <c r="F156" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B157" t="s">
-        <v>334</v>
-      </c>
-      <c r="C157" t="s">
-        <v>4</v>
-      </c>
-      <c r="D157" s="33">
-        <v>46.263019956271577</v>
-      </c>
-      <c r="E157" s="33">
-        <v>-1.170535737356692</v>
-      </c>
-      <c r="F157" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B158" t="s">
-        <v>334</v>
-      </c>
-      <c r="C158" t="s">
-        <v>4</v>
-      </c>
-      <c r="D158" s="33">
-        <v>45.991775264559507</v>
-      </c>
-      <c r="E158" s="33">
-        <v>2.3134279072226609</v>
-      </c>
-      <c r="F158" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B159" t="s">
-        <v>134</v>
-      </c>
-      <c r="C159" t="s">
-        <v>3</v>
-      </c>
-      <c r="D159" s="33">
-        <v>44.558633885623927</v>
-      </c>
-      <c r="E159" s="33">
-        <v>-0.16973508146966709</v>
-      </c>
-      <c r="F159" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B160" t="s">
-        <v>334</v>
-      </c>
-      <c r="C160" t="s">
-        <v>4</v>
-      </c>
-      <c r="D160" s="33">
-        <v>45.602502784222693</v>
-      </c>
-      <c r="E160" s="33">
-        <v>-1.094494550584924</v>
-      </c>
-      <c r="F160" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B161" t="s">
-        <v>334</v>
-      </c>
-      <c r="C161" t="s">
-        <v>4</v>
-      </c>
-      <c r="D161" s="33">
-        <v>46.062691121596472</v>
-      </c>
-      <c r="E161" s="33">
-        <v>-1.084663602957475</v>
-      </c>
-      <c r="F161" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B162" t="s">
-        <v>351</v>
-      </c>
-      <c r="C162" t="s">
-        <v>3</v>
-      </c>
-      <c r="D162" s="33">
-        <v>44.907491390261967</v>
-      </c>
-      <c r="E162" s="33">
-        <v>-0.55015397028539392</v>
-      </c>
-      <c r="F162" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B163" t="s">
-        <v>134</v>
-      </c>
-      <c r="C163" t="s">
-        <v>4</v>
-      </c>
-      <c r="D163" s="33">
-        <v>44.506046757227487</v>
-      </c>
-      <c r="E163" s="33">
-        <v>1.1055798873443179</v>
-      </c>
-      <c r="F163" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B164" t="s">
-        <v>70</v>
-      </c>
-      <c r="C164" t="s">
-        <v>4</v>
-      </c>
-      <c r="D164" s="33">
-        <v>44.466332790679971</v>
-      </c>
-      <c r="E164" s="33">
-        <v>1.122363064965809</v>
-      </c>
-      <c r="F164" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B165" t="s">
-        <v>63</v>
-      </c>
-      <c r="C165" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D165" s="33">
-        <v>44.692459385153597</v>
-      </c>
-      <c r="E165" s="33">
-        <v>0.53287681859794334</v>
-      </c>
-      <c r="F165" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B166" t="s">
-        <v>351</v>
-      </c>
-      <c r="C166" t="s">
-        <v>4</v>
-      </c>
-      <c r="D166" s="33">
-        <v>46.428139087606162</v>
-      </c>
-      <c r="E166" s="33">
-        <v>-0.13212817370598781</v>
-      </c>
-      <c r="F166" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B167" t="s">
-        <v>134</v>
-      </c>
-      <c r="C167" t="s">
-        <v>4</v>
-      </c>
-      <c r="D167" s="33">
-        <v>44.717172914675508</v>
-      </c>
-      <c r="E167" s="33">
-        <v>1.3177722222762991</v>
-      </c>
-      <c r="F167" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B168" t="s">
-        <v>225</v>
-      </c>
-      <c r="C168" t="s">
-        <v>4</v>
-      </c>
-      <c r="D168" s="33">
-        <v>44.492148376390517</v>
-      </c>
-      <c r="E168" s="33">
-        <v>1.282761966977366</v>
-      </c>
-      <c r="F168" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B169" t="s">
-        <v>130</v>
-      </c>
-      <c r="C169" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D169" s="33">
-        <v>43.879594038000022</v>
-      </c>
-      <c r="E169" s="33">
-        <v>-0.97244682087775003</v>
-      </c>
-      <c r="F169" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B170" t="s">
-        <v>351</v>
-      </c>
-      <c r="C170" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D170" s="33">
-        <v>47.102914739210981</v>
-      </c>
-      <c r="E170" s="33">
-        <v>-0.1819004205564155</v>
-      </c>
-      <c r="F170" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B171" t="s">
-        <v>60</v>
-      </c>
-      <c r="C171" t="s">
-        <v>4</v>
-      </c>
-      <c r="D171" s="33">
-        <v>44.129088477902741</v>
-      </c>
-      <c r="E171" s="33">
-        <v>0.46163066982189122</v>
-      </c>
-      <c r="F171" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8028,19 +7969,19 @@
   <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" customWidth="1"/>
     <col min="9" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="36.6640625" style="34" bestFit="1" customWidth="1"/>
   </cols>
@@ -39082,14 +39023,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -39296,7 +39237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estgv-my.sharepoint.com/personal/pv22981_alunos_estgv_ipv_pt/Documents/3 ano/2 semestre/ProjetoFinal/ProjetoFinal3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_FF467014A0A7179B504EC7F5DCE88EA6FBD2A36B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C92134E6-F3B2-4725-A07C-5371E5AFFD59}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_FF467014A0A7179B504EC7F5DCE88EA6FBD2A36B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA5AAFB6-42BF-4A41-B478-46480C984386}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WORKERS" sheetId="1" r:id="rId1"/>
@@ -3932,7 +3932,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4048,11 +4048,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4135,20 +4144,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4493,55 +4505,57 @@
   </sheetPr>
   <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>1095</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>1096</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="30" t="s">
         <v>1097</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>1098</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="C2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="33">
         <v>46.615953294355222</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="33">
         <v>-0.21034809587029771</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="32" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -39002,8 +39016,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39015,10 +39029,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="7"/>
